--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>154600</v>
+        <v>207100</v>
       </c>
       <c r="E8" s="3">
-        <v>151100</v>
+        <v>153500</v>
       </c>
       <c r="F8" s="3">
-        <v>132700</v>
+        <v>150100</v>
       </c>
       <c r="G8" s="3">
-        <v>107000</v>
+        <v>131800</v>
       </c>
       <c r="H8" s="3">
-        <v>57100</v>
+        <v>106200</v>
       </c>
       <c r="I8" s="3">
-        <v>60900</v>
+        <v>56700</v>
       </c>
       <c r="J8" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K8" s="3">
         <v>88500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>92400</v>
+        <v>144500</v>
       </c>
       <c r="E9" s="3">
-        <v>85400</v>
+        <v>91800</v>
       </c>
       <c r="F9" s="3">
-        <v>72600</v>
+        <v>84800</v>
       </c>
       <c r="G9" s="3">
-        <v>53100</v>
+        <v>72100</v>
       </c>
       <c r="H9" s="3">
-        <v>39200</v>
+        <v>52700</v>
       </c>
       <c r="I9" s="3">
-        <v>51600</v>
+        <v>39000</v>
       </c>
       <c r="J9" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K9" s="3">
         <v>56700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="E10" s="3">
-        <v>65700</v>
+        <v>61700</v>
       </c>
       <c r="F10" s="3">
-        <v>60200</v>
+        <v>65200</v>
       </c>
       <c r="G10" s="3">
-        <v>53900</v>
+        <v>59800</v>
       </c>
       <c r="H10" s="3">
-        <v>17800</v>
+        <v>53500</v>
       </c>
       <c r="I10" s="3">
-        <v>9400</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K10" s="3">
         <v>31800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>113100</v>
+        <v>192800</v>
       </c>
       <c r="E17" s="3">
-        <v>99300</v>
+        <v>112400</v>
       </c>
       <c r="F17" s="3">
-        <v>96600</v>
+        <v>98700</v>
       </c>
       <c r="G17" s="3">
-        <v>70500</v>
+        <v>95900</v>
       </c>
       <c r="H17" s="3">
-        <v>58700</v>
+        <v>70000</v>
       </c>
       <c r="I17" s="3">
-        <v>58600</v>
+        <v>58300</v>
       </c>
       <c r="J17" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K17" s="3">
         <v>76900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>41400</v>
+        <v>14300</v>
       </c>
       <c r="E18" s="3">
-        <v>51800</v>
+        <v>41100</v>
       </c>
       <c r="F18" s="3">
+        <v>51400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>35900</v>
+      </c>
+      <c r="H18" s="3">
         <v>36200</v>
       </c>
-      <c r="G18" s="3">
-        <v>36500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>64600</v>
+        <v>63500</v>
       </c>
       <c r="E21" s="3">
-        <v>78300</v>
+        <v>64200</v>
       </c>
       <c r="F21" s="3">
-        <v>54500</v>
+        <v>77800</v>
       </c>
       <c r="G21" s="3">
-        <v>50300</v>
+        <v>54100</v>
       </c>
       <c r="H21" s="3">
-        <v>11700</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="3">
-        <v>19400</v>
+        <v>11600</v>
       </c>
       <c r="J21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K21" s="3">
         <v>40800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>36200</v>
+        <v>11600</v>
       </c>
       <c r="E23" s="3">
-        <v>50900</v>
+        <v>36000</v>
       </c>
       <c r="F23" s="3">
-        <v>35600</v>
+        <v>50500</v>
       </c>
       <c r="G23" s="3">
-        <v>36000</v>
+        <v>35300</v>
       </c>
       <c r="H23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>15500</v>
+        <v>11300</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>15300</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>16900</v>
       </c>
       <c r="G24" s="3">
-        <v>19200</v>
+        <v>11600</v>
       </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>19100</v>
       </c>
       <c r="I24" s="3">
-        <v>9100</v>
+        <v>7900</v>
       </c>
       <c r="J24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>20800</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>33900</v>
+        <v>20600</v>
       </c>
       <c r="F26" s="3">
-        <v>23900</v>
+        <v>33600</v>
       </c>
       <c r="G26" s="3">
-        <v>16800</v>
+        <v>23700</v>
       </c>
       <c r="H26" s="3">
-        <v>-7300</v>
+        <v>16700</v>
       </c>
       <c r="I26" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="J26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K26" s="3">
         <v>24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>20800</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>33900</v>
+        <v>20600</v>
       </c>
       <c r="F27" s="3">
-        <v>23900</v>
+        <v>33600</v>
       </c>
       <c r="G27" s="3">
-        <v>16800</v>
+        <v>23700</v>
       </c>
       <c r="H27" s="3">
-        <v>-7300</v>
+        <v>16700</v>
       </c>
       <c r="I27" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="J27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K27" s="3">
         <v>24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>20800</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>33900</v>
+        <v>20600</v>
       </c>
       <c r="F33" s="3">
-        <v>23900</v>
+        <v>33600</v>
       </c>
       <c r="G33" s="3">
-        <v>16800</v>
+        <v>23700</v>
       </c>
       <c r="H33" s="3">
-        <v>-7300</v>
+        <v>16700</v>
       </c>
       <c r="I33" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="J33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K33" s="3">
         <v>24300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>20800</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>33900</v>
+        <v>20600</v>
       </c>
       <c r="F35" s="3">
-        <v>23900</v>
+        <v>33600</v>
       </c>
       <c r="G35" s="3">
-        <v>16800</v>
+        <v>23700</v>
       </c>
       <c r="H35" s="3">
-        <v>-7300</v>
+        <v>16700</v>
       </c>
       <c r="I35" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="J35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K35" s="3">
         <v>24300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1533,48 +1619,52 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>156200</v>
+        <v>172900</v>
       </c>
       <c r="E41" s="3">
-        <v>186800</v>
+        <v>155100</v>
       </c>
       <c r="F41" s="3">
-        <v>169200</v>
+        <v>185600</v>
       </c>
       <c r="G41" s="3">
-        <v>109200</v>
+        <v>168000</v>
       </c>
       <c r="H41" s="3">
-        <v>98400</v>
+        <v>108500</v>
       </c>
       <c r="I41" s="3">
-        <v>113600</v>
+        <v>97700</v>
       </c>
       <c r="J41" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K41" s="3">
         <v>107000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>35</v>
@@ -1585,188 +1675,209 @@
       <c r="I42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93300</v>
+        <v>87800</v>
       </c>
       <c r="E43" s="3">
-        <v>100000</v>
+        <v>92600</v>
       </c>
       <c r="F43" s="3">
-        <v>98200</v>
+        <v>99300</v>
       </c>
       <c r="G43" s="3">
-        <v>45500</v>
+        <v>97500</v>
       </c>
       <c r="H43" s="3">
-        <v>43500</v>
+        <v>45200</v>
       </c>
       <c r="I43" s="3">
-        <v>37700</v>
+        <v>43200</v>
       </c>
       <c r="J43" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K43" s="3">
         <v>61200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67500</v>
+        <v>90900</v>
       </c>
       <c r="E44" s="3">
-        <v>64700</v>
+        <v>67000</v>
       </c>
       <c r="F44" s="3">
-        <v>45200</v>
+        <v>64200</v>
       </c>
       <c r="G44" s="3">
-        <v>16300</v>
+        <v>44900</v>
       </c>
       <c r="H44" s="3">
-        <v>17100</v>
+        <v>16200</v>
       </c>
       <c r="I44" s="3">
-        <v>19100</v>
+        <v>17000</v>
       </c>
       <c r="J44" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K44" s="3">
         <v>18600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>7300</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="G45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>11800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>327800</v>
+        <v>367900</v>
       </c>
       <c r="E46" s="3">
-        <v>359900</v>
+        <v>325600</v>
       </c>
       <c r="F46" s="3">
-        <v>318200</v>
+        <v>357400</v>
       </c>
       <c r="G46" s="3">
-        <v>179400</v>
+        <v>316000</v>
       </c>
       <c r="H46" s="3">
-        <v>169900</v>
+        <v>178200</v>
       </c>
       <c r="I46" s="3">
-        <v>182200</v>
+        <v>168800</v>
       </c>
       <c r="J46" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K46" s="3">
         <v>195100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51300</v>
+        <v>22700</v>
       </c>
       <c r="E47" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="G47" s="3">
-        <v>60100</v>
-      </c>
       <c r="H47" s="3">
-        <v>64100</v>
+        <v>59700</v>
       </c>
       <c r="I47" s="3">
-        <v>66500</v>
+        <v>63600</v>
       </c>
       <c r="J47" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K47" s="3">
         <v>66600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>990700</v>
+        <v>2117700</v>
       </c>
       <c r="E48" s="3">
-        <v>999700</v>
+        <v>983900</v>
       </c>
       <c r="F48" s="3">
-        <v>1014700</v>
+        <v>992800</v>
       </c>
       <c r="G48" s="3">
-        <v>1027500</v>
+        <v>1007700</v>
       </c>
       <c r="H48" s="3">
-        <v>996500</v>
+        <v>1020400</v>
       </c>
       <c r="I48" s="3">
-        <v>979700</v>
+        <v>989700</v>
       </c>
       <c r="J48" s="3">
+        <v>973000</v>
+      </c>
+      <c r="K48" s="3">
         <v>938900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,22 +1969,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>42100</v>
       </c>
       <c r="E52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>35</v>
+      <c r="G52" s="3">
+        <v>19400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>35</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1389300</v>
+        <v>2550300</v>
       </c>
       <c r="E54" s="3">
-        <v>1371200</v>
+        <v>1379800</v>
       </c>
       <c r="F54" s="3">
-        <v>1353600</v>
+        <v>1361800</v>
       </c>
       <c r="G54" s="3">
-        <v>1267000</v>
+        <v>1344300</v>
       </c>
       <c r="H54" s="3">
-        <v>1230500</v>
+        <v>1258300</v>
       </c>
       <c r="I54" s="3">
-        <v>1228400</v>
+        <v>1222100</v>
       </c>
       <c r="J54" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40700</v>
+        <v>107800</v>
       </c>
       <c r="E57" s="3">
-        <v>42300</v>
+        <v>40400</v>
       </c>
       <c r="F57" s="3">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="G57" s="3">
-        <v>33300</v>
+        <v>37700</v>
       </c>
       <c r="H57" s="3">
-        <v>36900</v>
+        <v>33100</v>
       </c>
       <c r="I57" s="3">
-        <v>43600</v>
+        <v>36700</v>
       </c>
       <c r="J57" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K57" s="3">
         <v>52600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160000</v>
+        <v>196800</v>
       </c>
       <c r="E58" s="3">
-        <v>161700</v>
+        <v>158900</v>
       </c>
       <c r="F58" s="3">
+        <v>160600</v>
+      </c>
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
-        <v>10400</v>
-      </c>
       <c r="I58" s="3">
-        <v>49300</v>
+        <v>10300</v>
       </c>
       <c r="J58" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K58" s="3">
         <v>11300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60900</v>
+        <v>77400</v>
       </c>
       <c r="E59" s="3">
-        <v>61200</v>
+        <v>60500</v>
       </c>
       <c r="F59" s="3">
-        <v>76800</v>
+        <v>60800</v>
       </c>
       <c r="G59" s="3">
-        <v>60300</v>
+        <v>76200</v>
       </c>
       <c r="H59" s="3">
-        <v>38900</v>
+        <v>59900</v>
       </c>
       <c r="I59" s="3">
-        <v>41100</v>
+        <v>38700</v>
       </c>
       <c r="J59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K59" s="3">
         <v>51300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>261500</v>
+        <v>382000</v>
       </c>
       <c r="E60" s="3">
-        <v>265200</v>
+        <v>259700</v>
       </c>
       <c r="F60" s="3">
-        <v>123700</v>
+        <v>263400</v>
       </c>
       <c r="G60" s="3">
-        <v>103700</v>
+        <v>122800</v>
       </c>
       <c r="H60" s="3">
-        <v>86200</v>
+        <v>103000</v>
       </c>
       <c r="I60" s="3">
-        <v>134000</v>
+        <v>85600</v>
       </c>
       <c r="J60" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K60" s="3">
         <v>115100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65900</v>
+        <v>82400</v>
       </c>
       <c r="E61" s="3">
-        <v>66100</v>
+        <v>65500</v>
       </c>
       <c r="F61" s="3">
-        <v>219500</v>
+        <v>65700</v>
       </c>
       <c r="G61" s="3">
-        <v>187500</v>
+        <v>218000</v>
       </c>
       <c r="H61" s="3">
-        <v>186400</v>
+        <v>186200</v>
       </c>
       <c r="I61" s="3">
-        <v>218900</v>
+        <v>185100</v>
       </c>
       <c r="J61" s="3">
+        <v>217400</v>
+      </c>
+      <c r="K61" s="3">
         <v>207200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F62" s="3">
         <v>73600</v>
       </c>
-      <c r="E62" s="3">
-        <v>74100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>79500</v>
-      </c>
       <c r="G62" s="3">
-        <v>69300</v>
+        <v>79000</v>
       </c>
       <c r="H62" s="3">
-        <v>70300</v>
+        <v>68800</v>
       </c>
       <c r="I62" s="3">
-        <v>66300</v>
+        <v>69800</v>
       </c>
       <c r="J62" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K62" s="3">
         <v>63200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>401100</v>
+        <v>817500</v>
       </c>
       <c r="E66" s="3">
-        <v>405500</v>
+        <v>398300</v>
       </c>
       <c r="F66" s="3">
-        <v>422700</v>
+        <v>402700</v>
       </c>
       <c r="G66" s="3">
-        <v>360500</v>
+        <v>419800</v>
       </c>
       <c r="H66" s="3">
-        <v>342900</v>
+        <v>358000</v>
       </c>
       <c r="I66" s="3">
-        <v>419300</v>
+        <v>340600</v>
       </c>
       <c r="J66" s="3">
+        <v>416400</v>
+      </c>
+      <c r="K66" s="3">
         <v>385600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>343700</v>
+        <v>353200</v>
       </c>
       <c r="E72" s="3">
-        <v>322400</v>
+        <v>341400</v>
       </c>
       <c r="F72" s="3">
-        <v>299400</v>
+        <v>320200</v>
       </c>
       <c r="G72" s="3">
-        <v>275100</v>
+        <v>297400</v>
       </c>
       <c r="H72" s="3">
-        <v>257700</v>
+        <v>273200</v>
       </c>
       <c r="I72" s="3">
-        <v>265100</v>
+        <v>255900</v>
       </c>
       <c r="J72" s="3">
+        <v>263300</v>
+      </c>
+      <c r="K72" s="3">
         <v>273600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>988200</v>
+        <v>1732800</v>
       </c>
       <c r="E76" s="3">
-        <v>965700</v>
+        <v>981500</v>
       </c>
       <c r="F76" s="3">
-        <v>930900</v>
+        <v>959000</v>
       </c>
       <c r="G76" s="3">
-        <v>906500</v>
+        <v>924500</v>
       </c>
       <c r="H76" s="3">
-        <v>887600</v>
+        <v>900300</v>
       </c>
       <c r="I76" s="3">
-        <v>809100</v>
+        <v>881500</v>
       </c>
       <c r="J76" s="3">
+        <v>803600</v>
+      </c>
+      <c r="K76" s="3">
         <v>815000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>20800</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>33900</v>
+        <v>20600</v>
       </c>
       <c r="F81" s="3">
-        <v>23900</v>
+        <v>33600</v>
       </c>
       <c r="G81" s="3">
-        <v>16800</v>
+        <v>23700</v>
       </c>
       <c r="H81" s="3">
-        <v>-7300</v>
+        <v>16700</v>
       </c>
       <c r="I81" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="J81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K81" s="3">
         <v>24300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26300</v>
+        <v>48100</v>
       </c>
       <c r="E83" s="3">
-        <v>24600</v>
+        <v>26100</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>24400</v>
       </c>
       <c r="G83" s="3">
-        <v>14200</v>
+        <v>17600</v>
       </c>
       <c r="H83" s="3">
-        <v>10800</v>
+        <v>14100</v>
       </c>
       <c r="I83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="L83" s="3">
         <v>15600</v>
       </c>
-      <c r="J83" s="3">
-        <v>14900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37900</v>
+        <v>50200</v>
       </c>
       <c r="E89" s="3">
-        <v>27100</v>
+        <v>37600</v>
       </c>
       <c r="F89" s="3">
-        <v>40100</v>
+        <v>26900</v>
       </c>
       <c r="G89" s="3">
-        <v>58300</v>
+        <v>39800</v>
       </c>
       <c r="H89" s="3">
+        <v>57900</v>
+      </c>
+      <c r="I89" s="3">
         <v>4400</v>
       </c>
-      <c r="I89" s="3">
-        <v>17000</v>
-      </c>
       <c r="J89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K89" s="3">
         <v>22700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-99400</v>
       </c>
       <c r="E91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-65000</v>
+        <v>-15200</v>
       </c>
       <c r="E94" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
-        <v>-9300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-62300</v>
+        <v>-41400</v>
       </c>
       <c r="H94" s="3">
-        <v>-27000</v>
+        <v>-29700</v>
       </c>
       <c r="I94" s="3">
-        <v>-47200</v>
+        <v>-26800</v>
       </c>
       <c r="J94" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-58700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
-        <v>28800</v>
-      </c>
       <c r="G100" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>10900</v>
-      </c>
       <c r="I100" s="3">
-        <v>49100</v>
+        <v>10800</v>
       </c>
       <c r="J100" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K100" s="3">
         <v>52900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30600</v>
+        <v>17800</v>
       </c>
       <c r="E102" s="3">
-        <v>17700</v>
+        <v>-30400</v>
       </c>
       <c r="F102" s="3">
-        <v>59900</v>
+        <v>17600</v>
       </c>
       <c r="G102" s="3">
-        <v>10900</v>
+        <v>59500</v>
       </c>
       <c r="H102" s="3">
-        <v>-15200</v>
+        <v>10800</v>
       </c>
       <c r="I102" s="3">
-        <v>6600</v>
+        <v>-15100</v>
       </c>
       <c r="J102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -722,19 +722,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>207100</v>
+        <v>207200</v>
       </c>
       <c r="E8" s="3">
-        <v>153500</v>
+        <v>153600</v>
       </c>
       <c r="F8" s="3">
         <v>150100</v>
       </c>
       <c r="G8" s="3">
-        <v>131800</v>
+        <v>131900</v>
       </c>
       <c r="H8" s="3">
-        <v>106200</v>
+        <v>106300</v>
       </c>
       <c r="I8" s="3">
         <v>56700</v>
@@ -754,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>144500</v>
+        <v>144600</v>
       </c>
       <c r="E9" s="3">
         <v>91800</v>
       </c>
       <c r="F9" s="3">
-        <v>84800</v>
+        <v>84900</v>
       </c>
       <c r="G9" s="3">
         <v>72100</v>
@@ -792,7 +792,7 @@
         <v>61700</v>
       </c>
       <c r="F10" s="3">
-        <v>65200</v>
+        <v>65300</v>
       </c>
       <c r="G10" s="3">
         <v>59800</v>
@@ -971,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>192800</v>
+        <v>192900</v>
       </c>
       <c r="E17" s="3">
         <v>112400</v>
@@ -980,7 +980,7 @@
         <v>98700</v>
       </c>
       <c r="G17" s="3">
-        <v>95900</v>
+        <v>96000</v>
       </c>
       <c r="H17" s="3">
         <v>70000</v>
@@ -1006,7 +1006,7 @@
         <v>14300</v>
       </c>
       <c r="E18" s="3">
-        <v>41100</v>
+        <v>41200</v>
       </c>
       <c r="F18" s="3">
         <v>51400</v>
@@ -1015,7 +1015,7 @@
         <v>35900</v>
       </c>
       <c r="H18" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="I18" s="3">
         <v>-1600</v>
@@ -1090,7 +1090,7 @@
         <v>77800</v>
       </c>
       <c r="G21" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="H21" s="3">
         <v>50000</v>
@@ -1151,7 +1151,7 @@
         <v>36000</v>
       </c>
       <c r="F23" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="G23" s="3">
         <v>35300</v>
@@ -1180,7 +1180,7 @@
         <v>11300</v>
       </c>
       <c r="E24" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="F24" s="3">
         <v>16900</v>
@@ -1626,16 +1626,16 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>172900</v>
+        <v>173000</v>
       </c>
       <c r="E41" s="3">
-        <v>155100</v>
+        <v>155200</v>
       </c>
       <c r="F41" s="3">
         <v>185600</v>
       </c>
       <c r="G41" s="3">
-        <v>168000</v>
+        <v>168100</v>
       </c>
       <c r="H41" s="3">
         <v>108500</v>
@@ -1690,22 +1690,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E43" s="3">
-        <v>92600</v>
+        <v>92700</v>
       </c>
       <c r="F43" s="3">
-        <v>99300</v>
+        <v>99400</v>
       </c>
       <c r="G43" s="3">
-        <v>97500</v>
+        <v>97600</v>
       </c>
       <c r="H43" s="3">
         <v>45200</v>
       </c>
       <c r="I43" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="J43" s="3">
         <v>37500</v>
@@ -1725,7 +1725,7 @@
         <v>90900</v>
       </c>
       <c r="E44" s="3">
-        <v>67000</v>
+        <v>67100</v>
       </c>
       <c r="F44" s="3">
         <v>64200</v>
@@ -1786,16 +1786,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>367900</v>
+        <v>368000</v>
       </c>
       <c r="E46" s="3">
-        <v>325600</v>
+        <v>325700</v>
       </c>
       <c r="F46" s="3">
-        <v>357400</v>
+        <v>357600</v>
       </c>
       <c r="G46" s="3">
-        <v>316000</v>
+        <v>316100</v>
       </c>
       <c r="H46" s="3">
         <v>178200</v>
@@ -1804,7 +1804,7 @@
         <v>168800</v>
       </c>
       <c r="J46" s="3">
-        <v>180900</v>
+        <v>181000</v>
       </c>
       <c r="K46" s="3">
         <v>195100</v>
@@ -1833,7 +1833,7 @@
         <v>59700</v>
       </c>
       <c r="I47" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="J47" s="3">
         <v>66000</v>
@@ -1850,25 +1850,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2117700</v>
+        <v>2118500</v>
       </c>
       <c r="E48" s="3">
-        <v>983900</v>
+        <v>984300</v>
       </c>
       <c r="F48" s="3">
-        <v>992800</v>
+        <v>993200</v>
       </c>
       <c r="G48" s="3">
-        <v>1007700</v>
+        <v>1008100</v>
       </c>
       <c r="H48" s="3">
-        <v>1020400</v>
+        <v>1020800</v>
       </c>
       <c r="I48" s="3">
-        <v>989700</v>
+        <v>990100</v>
       </c>
       <c r="J48" s="3">
-        <v>973000</v>
+        <v>973400</v>
       </c>
       <c r="K48" s="3">
         <v>938900</v>
@@ -2042,25 +2042,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2550300</v>
+        <v>2551300</v>
       </c>
       <c r="E54" s="3">
-        <v>1379800</v>
+        <v>1380300</v>
       </c>
       <c r="F54" s="3">
-        <v>1361800</v>
+        <v>1362300</v>
       </c>
       <c r="G54" s="3">
-        <v>1344300</v>
+        <v>1344800</v>
       </c>
       <c r="H54" s="3">
-        <v>1258300</v>
+        <v>1258800</v>
       </c>
       <c r="I54" s="3">
-        <v>1222100</v>
+        <v>1222500</v>
       </c>
       <c r="J54" s="3">
-        <v>1220000</v>
+        <v>1220500</v>
       </c>
       <c r="K54" s="3">
         <v>1200600</v>
@@ -2137,10 +2137,10 @@
         <v>196800</v>
       </c>
       <c r="E58" s="3">
-        <v>158900</v>
+        <v>159000</v>
       </c>
       <c r="F58" s="3">
-        <v>160600</v>
+        <v>160700</v>
       </c>
       <c r="G58" s="3">
         <v>8900</v>
@@ -2166,7 +2166,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77400</v>
+        <v>77500</v>
       </c>
       <c r="E59" s="3">
         <v>60500</v>
@@ -2175,7 +2175,7 @@
         <v>60800</v>
       </c>
       <c r="G59" s="3">
-        <v>76200</v>
+        <v>76300</v>
       </c>
       <c r="H59" s="3">
         <v>59900</v>
@@ -2184,7 +2184,7 @@
         <v>38700</v>
       </c>
       <c r="J59" s="3">
-        <v>40800</v>
+        <v>40900</v>
       </c>
       <c r="K59" s="3">
         <v>51300</v>
@@ -2198,22 +2198,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>382000</v>
+        <v>382200</v>
       </c>
       <c r="E60" s="3">
-        <v>259700</v>
+        <v>259900</v>
       </c>
       <c r="F60" s="3">
-        <v>263400</v>
+        <v>263500</v>
       </c>
       <c r="G60" s="3">
-        <v>122800</v>
+        <v>122900</v>
       </c>
       <c r="H60" s="3">
         <v>103000</v>
       </c>
       <c r="I60" s="3">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="J60" s="3">
         <v>133100</v>
@@ -2239,16 +2239,16 @@
         <v>65700</v>
       </c>
       <c r="G61" s="3">
-        <v>218000</v>
+        <v>218100</v>
       </c>
       <c r="H61" s="3">
-        <v>186200</v>
+        <v>186300</v>
       </c>
       <c r="I61" s="3">
-        <v>185100</v>
+        <v>185200</v>
       </c>
       <c r="J61" s="3">
-        <v>217400</v>
+        <v>217500</v>
       </c>
       <c r="K61" s="3">
         <v>207200</v>
@@ -2262,22 +2262,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>285000</v>
+        <v>285100</v>
       </c>
       <c r="E62" s="3">
         <v>73100</v>
       </c>
       <c r="F62" s="3">
-        <v>73600</v>
+        <v>73700</v>
       </c>
       <c r="G62" s="3">
         <v>79000</v>
       </c>
       <c r="H62" s="3">
-        <v>68800</v>
+        <v>68900</v>
       </c>
       <c r="I62" s="3">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="J62" s="3">
         <v>65900</v>
@@ -2390,25 +2390,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>817500</v>
+        <v>817800</v>
       </c>
       <c r="E66" s="3">
-        <v>398300</v>
+        <v>398500</v>
       </c>
       <c r="F66" s="3">
-        <v>402700</v>
+        <v>402900</v>
       </c>
       <c r="G66" s="3">
-        <v>419800</v>
+        <v>420000</v>
       </c>
       <c r="H66" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="I66" s="3">
-        <v>340600</v>
+        <v>340700</v>
       </c>
       <c r="J66" s="3">
-        <v>416400</v>
+        <v>416500</v>
       </c>
       <c r="K66" s="3">
         <v>385600</v>
@@ -2564,25 +2564,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>353200</v>
+        <v>353300</v>
       </c>
       <c r="E72" s="3">
-        <v>341400</v>
+        <v>341500</v>
       </c>
       <c r="F72" s="3">
-        <v>320200</v>
+        <v>320300</v>
       </c>
       <c r="G72" s="3">
-        <v>297400</v>
+        <v>297500</v>
       </c>
       <c r="H72" s="3">
-        <v>273200</v>
+        <v>273300</v>
       </c>
       <c r="I72" s="3">
-        <v>255900</v>
+        <v>256000</v>
       </c>
       <c r="J72" s="3">
-        <v>263300</v>
+        <v>263400</v>
       </c>
       <c r="K72" s="3">
         <v>273600</v>
@@ -2692,25 +2692,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1732800</v>
+        <v>1733500</v>
       </c>
       <c r="E76" s="3">
-        <v>981500</v>
+        <v>981900</v>
       </c>
       <c r="F76" s="3">
-        <v>959000</v>
+        <v>959400</v>
       </c>
       <c r="G76" s="3">
-        <v>924500</v>
+        <v>924800</v>
       </c>
       <c r="H76" s="3">
-        <v>900300</v>
+        <v>900600</v>
       </c>
       <c r="I76" s="3">
-        <v>881500</v>
+        <v>881800</v>
       </c>
       <c r="J76" s="3">
-        <v>803600</v>
+        <v>803900</v>
       </c>
       <c r="K76" s="3">
         <v>815000</v>
@@ -3034,7 +3034,7 @@
         <v>50200</v>
       </c>
       <c r="E89" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="F89" s="3">
         <v>26900</v>
@@ -3077,7 +3077,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99400</v>
+        <v>-99500</v>
       </c>
       <c r="E91" s="3">
         <v>-15200</v>
@@ -3191,7 +3191,7 @@
         <v>-26800</v>
       </c>
       <c r="J94" s="3">
-        <v>-46800</v>
+        <v>-46900</v>
       </c>
       <c r="K94" s="3">
         <v>-58700</v>
@@ -3356,7 +3356,7 @@
         <v>-3100</v>
       </c>
       <c r="G100" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
@@ -3365,7 +3365,7 @@
         <v>10800</v>
       </c>
       <c r="J100" s="3">
-        <v>48700</v>
+        <v>48800</v>
       </c>
       <c r="K100" s="3">
         <v>52900</v>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>207200</v>
+        <v>237800</v>
       </c>
       <c r="E8" s="3">
-        <v>153600</v>
+        <v>259400</v>
       </c>
       <c r="F8" s="3">
-        <v>150100</v>
+        <v>212100</v>
       </c>
       <c r="G8" s="3">
-        <v>131900</v>
+        <v>157200</v>
       </c>
       <c r="H8" s="3">
-        <v>106300</v>
+        <v>153700</v>
       </c>
       <c r="I8" s="3">
+        <v>135000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K8" s="3">
         <v>56700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>60500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>88500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>144600</v>
+        <v>155000</v>
       </c>
       <c r="E9" s="3">
-        <v>91800</v>
+        <v>176400</v>
       </c>
       <c r="F9" s="3">
-        <v>84900</v>
+        <v>148000</v>
       </c>
       <c r="G9" s="3">
-        <v>72100</v>
+        <v>94000</v>
       </c>
       <c r="H9" s="3">
-        <v>52700</v>
+        <v>86900</v>
       </c>
       <c r="I9" s="3">
+        <v>73800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K9" s="3">
         <v>39000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>51200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>56700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62600</v>
+        <v>82800</v>
       </c>
       <c r="E10" s="3">
-        <v>61700</v>
+        <v>83000</v>
       </c>
       <c r="F10" s="3">
-        <v>65300</v>
+        <v>64100</v>
       </c>
       <c r="G10" s="3">
-        <v>59800</v>
+        <v>63200</v>
       </c>
       <c r="H10" s="3">
-        <v>53500</v>
+        <v>66800</v>
       </c>
       <c r="I10" s="3">
+        <v>61200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +923,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16100</v>
+        <v>2800</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>8800</v>
       </c>
       <c r="F14" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>192900</v>
+        <v>184700</v>
       </c>
       <c r="E17" s="3">
-        <v>112400</v>
+        <v>209600</v>
       </c>
       <c r="F17" s="3">
-        <v>98700</v>
+        <v>197400</v>
       </c>
       <c r="G17" s="3">
-        <v>96000</v>
+        <v>115100</v>
       </c>
       <c r="H17" s="3">
-        <v>70000</v>
+        <v>101000</v>
       </c>
       <c r="I17" s="3">
+        <v>98200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K17" s="3">
         <v>58300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>58200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>76900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>14300</v>
+        <v>53100</v>
       </c>
       <c r="E18" s="3">
-        <v>41200</v>
+        <v>49900</v>
       </c>
       <c r="F18" s="3">
-        <v>51400</v>
+        <v>14700</v>
       </c>
       <c r="G18" s="3">
-        <v>35900</v>
+        <v>42100</v>
       </c>
       <c r="H18" s="3">
-        <v>36300</v>
+        <v>52600</v>
       </c>
       <c r="I18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,168 +1108,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>-9000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3100</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>63500</v>
+        <v>94300</v>
       </c>
       <c r="E21" s="3">
-        <v>64200</v>
+        <v>102300</v>
       </c>
       <c r="F21" s="3">
-        <v>77800</v>
+        <v>65000</v>
       </c>
       <c r="G21" s="3">
-        <v>54200</v>
+        <v>65700</v>
       </c>
       <c r="H21" s="3">
-        <v>50000</v>
+        <v>79600</v>
       </c>
       <c r="I21" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>19200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>40800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>3800</v>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>11600</v>
+        <v>44000</v>
       </c>
       <c r="E23" s="3">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="F23" s="3">
-        <v>50600</v>
+        <v>11900</v>
       </c>
       <c r="G23" s="3">
-        <v>35300</v>
+        <v>36800</v>
       </c>
       <c r="H23" s="3">
-        <v>35800</v>
+        <v>51800</v>
       </c>
       <c r="I23" s="3">
+        <v>36200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>25700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>11300</v>
+        <v>8800</v>
       </c>
       <c r="E24" s="3">
-        <v>15400</v>
+        <v>17700</v>
       </c>
       <c r="F24" s="3">
-        <v>16900</v>
+        <v>11600</v>
       </c>
       <c r="G24" s="3">
-        <v>11600</v>
+        <v>15700</v>
       </c>
       <c r="H24" s="3">
-        <v>19100</v>
+        <v>17300</v>
       </c>
       <c r="I24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>33600</v>
-      </c>
       <c r="G26" s="3">
-        <v>23700</v>
+        <v>21100</v>
       </c>
       <c r="H26" s="3">
-        <v>16700</v>
+        <v>34400</v>
       </c>
       <c r="I26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>33600</v>
-      </c>
       <c r="G27" s="3">
-        <v>23700</v>
+        <v>21100</v>
       </c>
       <c r="H27" s="3">
-        <v>16700</v>
+        <v>34400</v>
       </c>
       <c r="I27" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>9000</v>
       </c>
       <c r="E32" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="G32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>33600</v>
-      </c>
       <c r="G33" s="3">
-        <v>23700</v>
+        <v>21100</v>
       </c>
       <c r="H33" s="3">
-        <v>16700</v>
+        <v>34400</v>
       </c>
       <c r="I33" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>33600</v>
-      </c>
       <c r="G35" s="3">
-        <v>23700</v>
+        <v>21100</v>
       </c>
       <c r="H35" s="3">
-        <v>16700</v>
+        <v>34400</v>
       </c>
       <c r="I35" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1620,57 +1791,65 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>173000</v>
+        <v>144000</v>
       </c>
       <c r="E41" s="3">
-        <v>155200</v>
+        <v>139700</v>
       </c>
       <c r="F41" s="3">
-        <v>185600</v>
+        <v>177100</v>
       </c>
       <c r="G41" s="3">
-        <v>168100</v>
+        <v>158900</v>
       </c>
       <c r="H41" s="3">
-        <v>108500</v>
+        <v>190000</v>
       </c>
       <c r="I41" s="3">
+        <v>172000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K41" s="3">
         <v>97700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>112800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>107000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>35</v>
@@ -1678,206 +1857,248 @@
       <c r="J42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87900</v>
+        <v>117300</v>
       </c>
       <c r="E43" s="3">
-        <v>92700</v>
+        <v>102000</v>
       </c>
       <c r="F43" s="3">
-        <v>99400</v>
+        <v>90000</v>
       </c>
       <c r="G43" s="3">
-        <v>97600</v>
+        <v>94900</v>
       </c>
       <c r="H43" s="3">
-        <v>45200</v>
+        <v>101700</v>
       </c>
       <c r="I43" s="3">
+        <v>99900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K43" s="3">
         <v>43300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>37500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>61200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>90900</v>
+        <v>119100</v>
       </c>
       <c r="E44" s="3">
-        <v>67100</v>
+        <v>111900</v>
       </c>
       <c r="F44" s="3">
-        <v>64200</v>
+        <v>93000</v>
       </c>
       <c r="G44" s="3">
-        <v>44900</v>
+        <v>68600</v>
       </c>
       <c r="H44" s="3">
-        <v>16200</v>
+        <v>65800</v>
       </c>
       <c r="I44" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K44" s="3">
         <v>17000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>19000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>18600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="F45" s="3">
-        <v>7200</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>5500</v>
+        <v>9800</v>
       </c>
       <c r="H45" s="3">
-        <v>8300</v>
+        <v>7400</v>
       </c>
       <c r="I45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>368000</v>
+        <v>393200</v>
       </c>
       <c r="E46" s="3">
-        <v>325700</v>
+        <v>366600</v>
       </c>
       <c r="F46" s="3">
-        <v>357600</v>
+        <v>376700</v>
       </c>
       <c r="G46" s="3">
-        <v>316100</v>
+        <v>333400</v>
       </c>
       <c r="H46" s="3">
-        <v>178200</v>
+        <v>366000</v>
       </c>
       <c r="I46" s="3">
+        <v>323600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K46" s="3">
         <v>168800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>181000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>195100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22700</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
-        <v>51000</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3">
-        <v>5900</v>
+        <v>23200</v>
       </c>
       <c r="G47" s="3">
+        <v>52200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
-        <v>59700</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K47" s="3">
         <v>63700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>66000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>66600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2118500</v>
+        <v>2242600</v>
       </c>
       <c r="E48" s="3">
-        <v>984300</v>
+        <v>2233600</v>
       </c>
       <c r="F48" s="3">
-        <v>993200</v>
+        <v>2168600</v>
       </c>
       <c r="G48" s="3">
-        <v>1008100</v>
+        <v>1007500</v>
       </c>
       <c r="H48" s="3">
-        <v>1020800</v>
+        <v>1016700</v>
       </c>
       <c r="I48" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="K48" s="3">
         <v>990100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>973400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>938900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,28 +2205,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42100</v>
+        <v>45600</v>
       </c>
       <c r="E52" s="3">
-        <v>19400</v>
+        <v>31200</v>
       </c>
       <c r="F52" s="3">
-        <v>5700</v>
+        <v>43100</v>
       </c>
       <c r="G52" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>35</v>
+        <v>19800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>19800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>35</v>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2551300</v>
+        <v>2687600</v>
       </c>
       <c r="E54" s="3">
-        <v>1380300</v>
+        <v>2637400</v>
       </c>
       <c r="F54" s="3">
-        <v>1362300</v>
+        <v>2611600</v>
       </c>
       <c r="G54" s="3">
-        <v>1344800</v>
+        <v>1412900</v>
       </c>
       <c r="H54" s="3">
-        <v>1258800</v>
+        <v>1394500</v>
       </c>
       <c r="I54" s="3">
+        <v>1376600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1288500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1222500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1220500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1200600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107800</v>
+        <v>95100</v>
       </c>
       <c r="E57" s="3">
-        <v>40400</v>
+        <v>107700</v>
       </c>
       <c r="F57" s="3">
-        <v>42000</v>
+        <v>110400</v>
       </c>
       <c r="G57" s="3">
-        <v>37700</v>
+        <v>41400</v>
       </c>
       <c r="H57" s="3">
-        <v>33100</v>
+        <v>43000</v>
       </c>
       <c r="I57" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K57" s="3">
         <v>36700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>43300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>52600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>196800</v>
+        <v>13500</v>
       </c>
       <c r="E58" s="3">
-        <v>159000</v>
+        <v>13700</v>
       </c>
       <c r="F58" s="3">
-        <v>160700</v>
+        <v>201500</v>
       </c>
       <c r="G58" s="3">
-        <v>8900</v>
+        <v>162700</v>
       </c>
       <c r="H58" s="3">
-        <v>10000</v>
+        <v>164500</v>
       </c>
       <c r="I58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>49000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77500</v>
+        <v>81300</v>
       </c>
       <c r="E59" s="3">
-        <v>60500</v>
+        <v>96200</v>
       </c>
       <c r="F59" s="3">
-        <v>60800</v>
+        <v>79300</v>
       </c>
       <c r="G59" s="3">
-        <v>76300</v>
+        <v>61900</v>
       </c>
       <c r="H59" s="3">
-        <v>59900</v>
+        <v>62200</v>
       </c>
       <c r="I59" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K59" s="3">
         <v>38700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>40900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>382200</v>
+        <v>189900</v>
       </c>
       <c r="E60" s="3">
-        <v>259900</v>
+        <v>217500</v>
       </c>
       <c r="F60" s="3">
-        <v>263500</v>
+        <v>391200</v>
       </c>
       <c r="G60" s="3">
-        <v>122900</v>
+        <v>266000</v>
       </c>
       <c r="H60" s="3">
-        <v>103000</v>
+        <v>269700</v>
       </c>
       <c r="I60" s="3">
+        <v>125800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K60" s="3">
         <v>85700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>133100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>115100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82400</v>
+        <v>280600</v>
       </c>
       <c r="E61" s="3">
-        <v>65500</v>
+        <v>230100</v>
       </c>
       <c r="F61" s="3">
-        <v>65700</v>
+        <v>84400</v>
       </c>
       <c r="G61" s="3">
-        <v>218100</v>
+        <v>67100</v>
       </c>
       <c r="H61" s="3">
-        <v>186300</v>
+        <v>67300</v>
       </c>
       <c r="I61" s="3">
+        <v>223200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>190700</v>
+      </c>
+      <c r="K61" s="3">
         <v>185200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>217500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>207200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>285100</v>
+        <v>317700</v>
       </c>
       <c r="E62" s="3">
-        <v>73100</v>
+        <v>325100</v>
       </c>
       <c r="F62" s="3">
-        <v>73700</v>
+        <v>291900</v>
       </c>
       <c r="G62" s="3">
-        <v>79000</v>
+        <v>74800</v>
       </c>
       <c r="H62" s="3">
-        <v>68900</v>
+        <v>75400</v>
       </c>
       <c r="I62" s="3">
+        <v>80900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K62" s="3">
         <v>69900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>65900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>63200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>817800</v>
+        <v>860400</v>
       </c>
       <c r="E66" s="3">
-        <v>398500</v>
+        <v>843700</v>
       </c>
       <c r="F66" s="3">
-        <v>402900</v>
+        <v>837100</v>
       </c>
       <c r="G66" s="3">
-        <v>420000</v>
+        <v>407900</v>
       </c>
       <c r="H66" s="3">
-        <v>358200</v>
+        <v>412400</v>
       </c>
       <c r="I66" s="3">
+        <v>429900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>366600</v>
+      </c>
+      <c r="K66" s="3">
         <v>340700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>416500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>385600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>353300</v>
+        <v>416100</v>
       </c>
       <c r="E72" s="3">
-        <v>341500</v>
+        <v>382700</v>
       </c>
       <c r="F72" s="3">
-        <v>320300</v>
+        <v>361600</v>
       </c>
       <c r="G72" s="3">
-        <v>297500</v>
+        <v>349600</v>
       </c>
       <c r="H72" s="3">
-        <v>273300</v>
+        <v>327800</v>
       </c>
       <c r="I72" s="3">
+        <v>304500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K72" s="3">
         <v>256000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>263400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>273600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1733500</v>
+        <v>1827200</v>
       </c>
       <c r="E76" s="3">
-        <v>981900</v>
+        <v>1793700</v>
       </c>
       <c r="F76" s="3">
-        <v>959400</v>
+        <v>1774500</v>
       </c>
       <c r="G76" s="3">
-        <v>924800</v>
+        <v>1005000</v>
       </c>
       <c r="H76" s="3">
-        <v>900600</v>
+        <v>982100</v>
       </c>
       <c r="I76" s="3">
+        <v>946700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>921900</v>
+      </c>
+      <c r="K76" s="3">
         <v>881800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>803900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>815000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>33600</v>
-      </c>
       <c r="G81" s="3">
-        <v>23700</v>
+        <v>21100</v>
       </c>
       <c r="H81" s="3">
-        <v>16700</v>
+        <v>34400</v>
       </c>
       <c r="I81" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48100</v>
+        <v>50200</v>
       </c>
       <c r="E83" s="3">
-        <v>26100</v>
+        <v>58400</v>
       </c>
       <c r="F83" s="3">
-        <v>24400</v>
+        <v>49300</v>
       </c>
       <c r="G83" s="3">
-        <v>17600</v>
+        <v>26800</v>
       </c>
       <c r="H83" s="3">
-        <v>14100</v>
+        <v>25000</v>
       </c>
       <c r="I83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50200</v>
+        <v>43400</v>
       </c>
       <c r="E89" s="3">
-        <v>37700</v>
+        <v>74400</v>
       </c>
       <c r="F89" s="3">
-        <v>26900</v>
+        <v>51400</v>
       </c>
       <c r="G89" s="3">
-        <v>39800</v>
+        <v>38500</v>
       </c>
       <c r="H89" s="3">
-        <v>57900</v>
+        <v>27600</v>
       </c>
       <c r="I89" s="3">
+        <v>40800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99500</v>
+        <v>-84800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15200</v>
+        <v>-81000</v>
       </c>
       <c r="F91" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15200</v>
+        <v>-85400</v>
       </c>
       <c r="E94" s="3">
-        <v>-64600</v>
+        <v>-66900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5900</v>
+        <v>-15500</v>
       </c>
       <c r="G94" s="3">
-        <v>-41400</v>
+        <v>-66100</v>
       </c>
       <c r="H94" s="3">
-        <v>-29700</v>
+        <v>-6000</v>
       </c>
       <c r="I94" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-46900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-58700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15600</v>
+        <v>48000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2800</v>
+        <v>-45000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3100</v>
+        <v>-16000</v>
       </c>
       <c r="G100" s="3">
-        <v>28700</v>
+        <v>-2900</v>
       </c>
       <c r="H100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>52900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17800</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>-30400</v>
+        <v>-37400</v>
       </c>
       <c r="F102" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="G102" s="3">
-        <v>59500</v>
+        <v>-31200</v>
       </c>
       <c r="H102" s="3">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="I102" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>237800</v>
+        <v>217000</v>
       </c>
       <c r="E8" s="3">
-        <v>259400</v>
+        <v>235600</v>
       </c>
       <c r="F8" s="3">
-        <v>212100</v>
+        <v>257100</v>
       </c>
       <c r="G8" s="3">
-        <v>157200</v>
+        <v>210100</v>
       </c>
       <c r="H8" s="3">
-        <v>153700</v>
+        <v>155700</v>
       </c>
       <c r="I8" s="3">
-        <v>135000</v>
+        <v>152200</v>
       </c>
       <c r="J8" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K8" s="3">
         <v>108800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>88500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>155000</v>
+        <v>169700</v>
       </c>
       <c r="E9" s="3">
-        <v>176400</v>
+        <v>153600</v>
       </c>
       <c r="F9" s="3">
-        <v>148000</v>
+        <v>174800</v>
       </c>
       <c r="G9" s="3">
-        <v>94000</v>
+        <v>146600</v>
       </c>
       <c r="H9" s="3">
-        <v>86900</v>
+        <v>93100</v>
       </c>
       <c r="I9" s="3">
-        <v>73800</v>
+        <v>86100</v>
       </c>
       <c r="J9" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K9" s="3">
         <v>54000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82800</v>
+        <v>47300</v>
       </c>
       <c r="E10" s="3">
-        <v>83000</v>
+        <v>82000</v>
       </c>
       <c r="F10" s="3">
-        <v>64100</v>
+        <v>82300</v>
       </c>
       <c r="G10" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="H10" s="3">
-        <v>66800</v>
+        <v>62600</v>
       </c>
       <c r="I10" s="3">
-        <v>61200</v>
+        <v>66200</v>
       </c>
       <c r="J10" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K10" s="3">
         <v>54800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,19 +866,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
@@ -874,25 +888,28 @@
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>700</v>
+      </c>
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>184700</v>
+        <v>200000</v>
       </c>
       <c r="E17" s="3">
-        <v>209600</v>
+        <v>183000</v>
       </c>
       <c r="F17" s="3">
-        <v>197400</v>
+        <v>207600</v>
       </c>
       <c r="G17" s="3">
-        <v>115100</v>
+        <v>195600</v>
       </c>
       <c r="H17" s="3">
-        <v>101000</v>
+        <v>114000</v>
       </c>
       <c r="I17" s="3">
-        <v>98200</v>
+        <v>100100</v>
       </c>
       <c r="J17" s="3">
+        <v>97300</v>
+      </c>
+      <c r="K17" s="3">
         <v>71700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>53100</v>
+        <v>17000</v>
       </c>
       <c r="E18" s="3">
-        <v>49900</v>
+        <v>52600</v>
       </c>
       <c r="F18" s="3">
-        <v>14700</v>
+        <v>49400</v>
       </c>
       <c r="G18" s="3">
-        <v>42100</v>
+        <v>14600</v>
       </c>
       <c r="H18" s="3">
-        <v>52600</v>
+        <v>41700</v>
       </c>
       <c r="I18" s="3">
-        <v>36800</v>
+        <v>52100</v>
       </c>
       <c r="J18" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K18" s="3">
         <v>37100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-9000</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>94300</v>
+        <v>76000</v>
       </c>
       <c r="E21" s="3">
-        <v>102300</v>
+        <v>94200</v>
       </c>
       <c r="F21" s="3">
-        <v>65000</v>
+        <v>101300</v>
       </c>
       <c r="G21" s="3">
-        <v>65700</v>
+        <v>64400</v>
       </c>
       <c r="H21" s="3">
-        <v>79600</v>
+        <v>65100</v>
       </c>
       <c r="I21" s="3">
-        <v>55400</v>
+        <v>78900</v>
       </c>
       <c r="J21" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K21" s="3">
         <v>51200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>35</v>
+      <c r="D22" s="3">
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
-        <v>2900</v>
-      </c>
       <c r="I22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>44000</v>
+        <v>19700</v>
       </c>
       <c r="E23" s="3">
-        <v>39400</v>
+        <v>43600</v>
       </c>
       <c r="F23" s="3">
-        <v>11900</v>
+        <v>39000</v>
       </c>
       <c r="G23" s="3">
-        <v>36800</v>
+        <v>11700</v>
       </c>
       <c r="H23" s="3">
-        <v>51800</v>
+        <v>36500</v>
       </c>
       <c r="I23" s="3">
-        <v>36200</v>
+        <v>51300</v>
       </c>
       <c r="J23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K23" s="3">
         <v>36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
-        <v>17700</v>
-      </c>
       <c r="F24" s="3">
-        <v>11600</v>
+        <v>17500</v>
       </c>
       <c r="G24" s="3">
-        <v>15700</v>
+        <v>11500</v>
       </c>
       <c r="H24" s="3">
-        <v>17300</v>
+        <v>15600</v>
       </c>
       <c r="I24" s="3">
-        <v>11900</v>
+        <v>17200</v>
       </c>
       <c r="J24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K24" s="3">
         <v>19500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>35200</v>
+        <v>2200</v>
       </c>
       <c r="E26" s="3">
-        <v>21700</v>
+        <v>34900</v>
       </c>
       <c r="F26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>21100</v>
-      </c>
       <c r="H26" s="3">
-        <v>34400</v>
+        <v>20900</v>
       </c>
       <c r="I26" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N26" s="3">
         <v>24300</v>
       </c>
-      <c r="J26" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>24300</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>34000</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="3">
-        <v>20500</v>
+        <v>33700</v>
       </c>
       <c r="F27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>21100</v>
-      </c>
       <c r="H27" s="3">
-        <v>34400</v>
+        <v>20900</v>
       </c>
       <c r="I27" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N27" s="3">
         <v>24300</v>
       </c>
-      <c r="J27" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>24300</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>9000</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>3200</v>
-      </c>
       <c r="H32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>34000</v>
+        <v>3000</v>
       </c>
       <c r="E33" s="3">
-        <v>20500</v>
+        <v>33700</v>
       </c>
       <c r="F33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>21100</v>
-      </c>
       <c r="H33" s="3">
-        <v>34400</v>
+        <v>20900</v>
       </c>
       <c r="I33" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N33" s="3">
         <v>24300</v>
       </c>
-      <c r="J33" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>24300</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>34000</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="3">
-        <v>20500</v>
+        <v>33700</v>
       </c>
       <c r="F35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>21100</v>
-      </c>
       <c r="H35" s="3">
-        <v>34400</v>
+        <v>20900</v>
       </c>
       <c r="I35" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N35" s="3">
         <v>24300</v>
       </c>
-      <c r="J35" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>24300</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1793,66 +1879,70 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>144000</v>
+        <v>150100</v>
       </c>
       <c r="E41" s="3">
-        <v>139700</v>
+        <v>142600</v>
       </c>
       <c r="F41" s="3">
-        <v>177100</v>
+        <v>138400</v>
       </c>
       <c r="G41" s="3">
-        <v>158900</v>
+        <v>175500</v>
       </c>
       <c r="H41" s="3">
-        <v>190000</v>
+        <v>157400</v>
       </c>
       <c r="I41" s="3">
-        <v>172000</v>
+        <v>188300</v>
       </c>
       <c r="J41" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K41" s="3">
         <v>111100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -1863,242 +1953,263 @@
       <c r="L42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>117300</v>
+        <v>96100</v>
       </c>
       <c r="E43" s="3">
-        <v>102000</v>
+        <v>116200</v>
       </c>
       <c r="F43" s="3">
-        <v>90000</v>
+        <v>101100</v>
       </c>
       <c r="G43" s="3">
-        <v>94900</v>
+        <v>89100</v>
       </c>
       <c r="H43" s="3">
-        <v>101700</v>
+        <v>94000</v>
       </c>
       <c r="I43" s="3">
-        <v>99900</v>
+        <v>100800</v>
       </c>
       <c r="J43" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K43" s="3">
         <v>46300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>119100</v>
+        <v>111400</v>
       </c>
       <c r="E44" s="3">
-        <v>111900</v>
+        <v>118000</v>
       </c>
       <c r="F44" s="3">
-        <v>93000</v>
+        <v>110900</v>
       </c>
       <c r="G44" s="3">
-        <v>68600</v>
+        <v>92200</v>
       </c>
       <c r="H44" s="3">
-        <v>65800</v>
+        <v>68000</v>
       </c>
       <c r="I44" s="3">
-        <v>46000</v>
+        <v>65100</v>
       </c>
       <c r="J44" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K44" s="3">
         <v>16500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12400</v>
+        <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>9800</v>
+        <v>15800</v>
       </c>
       <c r="H45" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>5700</v>
+        <v>7300</v>
       </c>
       <c r="J45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>393200</v>
+        <v>371900</v>
       </c>
       <c r="E46" s="3">
-        <v>366600</v>
+        <v>389600</v>
       </c>
       <c r="F46" s="3">
-        <v>376700</v>
+        <v>363300</v>
       </c>
       <c r="G46" s="3">
-        <v>333400</v>
+        <v>373200</v>
       </c>
       <c r="H46" s="3">
-        <v>366000</v>
+        <v>330300</v>
       </c>
       <c r="I46" s="3">
-        <v>323600</v>
+        <v>362600</v>
       </c>
       <c r="J46" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K46" s="3">
         <v>182500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>168800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
-        <v>23200</v>
-      </c>
       <c r="G47" s="3">
-        <v>52200</v>
+        <v>23000</v>
       </c>
       <c r="H47" s="3">
-        <v>6000</v>
+        <v>51700</v>
       </c>
       <c r="I47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>61100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2242600</v>
+        <v>2234000</v>
       </c>
       <c r="E48" s="3">
-        <v>2233600</v>
+        <v>2222000</v>
       </c>
       <c r="F48" s="3">
-        <v>2168600</v>
+        <v>2213000</v>
       </c>
       <c r="G48" s="3">
-        <v>1007500</v>
+        <v>2148600</v>
       </c>
       <c r="H48" s="3">
-        <v>1016700</v>
+        <v>998300</v>
       </c>
       <c r="I48" s="3">
-        <v>1031900</v>
+        <v>1007300</v>
       </c>
       <c r="J48" s="3">
+        <v>1022500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1045000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>990100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>973400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>938900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,31 +2328,34 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45600</v>
+        <v>50500</v>
       </c>
       <c r="E52" s="3">
-        <v>31200</v>
+        <v>45200</v>
       </c>
       <c r="F52" s="3">
-        <v>43100</v>
+        <v>31000</v>
       </c>
       <c r="G52" s="3">
-        <v>19800</v>
+        <v>42700</v>
       </c>
       <c r="H52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>35</v>
+      <c r="J52" s="3">
+        <v>19700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>35</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2687600</v>
+        <v>2662300</v>
       </c>
       <c r="E54" s="3">
-        <v>2637400</v>
+        <v>2662800</v>
       </c>
       <c r="F54" s="3">
-        <v>2611600</v>
+        <v>2613100</v>
       </c>
       <c r="G54" s="3">
-        <v>1412900</v>
+        <v>2587600</v>
       </c>
       <c r="H54" s="3">
-        <v>1394500</v>
+        <v>1399900</v>
       </c>
       <c r="I54" s="3">
-        <v>1376600</v>
+        <v>1381700</v>
       </c>
       <c r="J54" s="3">
+        <v>1363900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1288500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1222500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1220500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95100</v>
+        <v>87200</v>
       </c>
       <c r="E57" s="3">
-        <v>107700</v>
+        <v>94200</v>
       </c>
       <c r="F57" s="3">
-        <v>110400</v>
+        <v>106700</v>
       </c>
       <c r="G57" s="3">
-        <v>41400</v>
+        <v>109400</v>
       </c>
       <c r="H57" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="I57" s="3">
-        <v>38600</v>
+        <v>42600</v>
       </c>
       <c r="J57" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K57" s="3">
         <v>33900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="E58" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="F58" s="3">
-        <v>201500</v>
+        <v>13600</v>
       </c>
       <c r="G58" s="3">
-        <v>162700</v>
+        <v>199600</v>
       </c>
       <c r="H58" s="3">
-        <v>164500</v>
+        <v>161200</v>
       </c>
       <c r="I58" s="3">
-        <v>9100</v>
+        <v>163000</v>
       </c>
       <c r="J58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81300</v>
+        <v>63900</v>
       </c>
       <c r="E59" s="3">
-        <v>96200</v>
+        <v>80600</v>
       </c>
       <c r="F59" s="3">
-        <v>79300</v>
+        <v>95300</v>
       </c>
       <c r="G59" s="3">
-        <v>61900</v>
+        <v>78600</v>
       </c>
       <c r="H59" s="3">
-        <v>62200</v>
+        <v>61400</v>
       </c>
       <c r="I59" s="3">
-        <v>78100</v>
+        <v>61700</v>
       </c>
       <c r="J59" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K59" s="3">
         <v>61400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>189900</v>
+        <v>164400</v>
       </c>
       <c r="E60" s="3">
-        <v>217500</v>
+        <v>188100</v>
       </c>
       <c r="F60" s="3">
-        <v>391200</v>
+        <v>215500</v>
       </c>
       <c r="G60" s="3">
-        <v>266000</v>
+        <v>387600</v>
       </c>
       <c r="H60" s="3">
-        <v>269700</v>
+        <v>263500</v>
       </c>
       <c r="I60" s="3">
-        <v>125800</v>
+        <v>267300</v>
       </c>
       <c r="J60" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K60" s="3">
         <v>105500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>115100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>280600</v>
+        <v>302000</v>
       </c>
       <c r="E61" s="3">
-        <v>230100</v>
+        <v>278000</v>
       </c>
       <c r="F61" s="3">
-        <v>84400</v>
+        <v>227900</v>
       </c>
       <c r="G61" s="3">
-        <v>67100</v>
+        <v>83600</v>
       </c>
       <c r="H61" s="3">
-        <v>67300</v>
+        <v>66400</v>
       </c>
       <c r="I61" s="3">
-        <v>223200</v>
+        <v>66600</v>
       </c>
       <c r="J61" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K61" s="3">
         <v>190700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>217500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>207200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>317700</v>
+        <v>319100</v>
       </c>
       <c r="E62" s="3">
-        <v>325100</v>
+        <v>314800</v>
       </c>
       <c r="F62" s="3">
-        <v>291900</v>
+        <v>322100</v>
       </c>
       <c r="G62" s="3">
-        <v>74800</v>
+        <v>289200</v>
       </c>
       <c r="H62" s="3">
-        <v>75400</v>
+        <v>74200</v>
       </c>
       <c r="I62" s="3">
-        <v>80900</v>
+        <v>74700</v>
       </c>
       <c r="J62" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K62" s="3">
         <v>70500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>860400</v>
+        <v>856200</v>
       </c>
       <c r="E66" s="3">
-        <v>843700</v>
+        <v>852400</v>
       </c>
       <c r="F66" s="3">
-        <v>837100</v>
+        <v>835900</v>
       </c>
       <c r="G66" s="3">
-        <v>407900</v>
+        <v>829400</v>
       </c>
       <c r="H66" s="3">
-        <v>412400</v>
+        <v>404100</v>
       </c>
       <c r="I66" s="3">
-        <v>429900</v>
+        <v>408600</v>
       </c>
       <c r="J66" s="3">
+        <v>425900</v>
+      </c>
+      <c r="K66" s="3">
         <v>366600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>340700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>416500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>385600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416100</v>
+        <v>415300</v>
       </c>
       <c r="E72" s="3">
-        <v>382700</v>
+        <v>412200</v>
       </c>
       <c r="F72" s="3">
-        <v>361600</v>
+        <v>379100</v>
       </c>
       <c r="G72" s="3">
-        <v>349600</v>
+        <v>358300</v>
       </c>
       <c r="H72" s="3">
-        <v>327800</v>
+        <v>346400</v>
       </c>
       <c r="I72" s="3">
-        <v>304500</v>
+        <v>324800</v>
       </c>
       <c r="J72" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K72" s="3">
         <v>279700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>256000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>263400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>273600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1827200</v>
+        <v>1806100</v>
       </c>
       <c r="E76" s="3">
-        <v>1793700</v>
+        <v>1810400</v>
       </c>
       <c r="F76" s="3">
-        <v>1774500</v>
+        <v>1777200</v>
       </c>
       <c r="G76" s="3">
-        <v>1005000</v>
+        <v>1758100</v>
       </c>
       <c r="H76" s="3">
-        <v>982100</v>
+        <v>995800</v>
       </c>
       <c r="I76" s="3">
-        <v>946700</v>
+        <v>973000</v>
       </c>
       <c r="J76" s="3">
+        <v>938000</v>
+      </c>
+      <c r="K76" s="3">
         <v>921900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>881800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>803900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>815000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>34000</v>
+        <v>3000</v>
       </c>
       <c r="E81" s="3">
-        <v>20500</v>
+        <v>33700</v>
       </c>
       <c r="F81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>21100</v>
-      </c>
       <c r="H81" s="3">
-        <v>34400</v>
+        <v>20900</v>
       </c>
       <c r="I81" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N81" s="3">
         <v>24300</v>
       </c>
-      <c r="J81" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>24300</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50200</v>
+        <v>55500</v>
       </c>
       <c r="E83" s="3">
-        <v>58400</v>
+        <v>49800</v>
       </c>
       <c r="F83" s="3">
-        <v>49300</v>
+        <v>57900</v>
       </c>
       <c r="G83" s="3">
-        <v>26800</v>
+        <v>48800</v>
       </c>
       <c r="H83" s="3">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="I83" s="3">
-        <v>18000</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43400</v>
+        <v>60400</v>
       </c>
       <c r="E89" s="3">
-        <v>74400</v>
+        <v>43000</v>
       </c>
       <c r="F89" s="3">
-        <v>51400</v>
+        <v>73800</v>
       </c>
       <c r="G89" s="3">
-        <v>38500</v>
+        <v>50900</v>
       </c>
       <c r="H89" s="3">
-        <v>27600</v>
+        <v>38200</v>
       </c>
       <c r="I89" s="3">
-        <v>40800</v>
+        <v>27300</v>
       </c>
       <c r="J89" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K89" s="3">
         <v>59300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84800</v>
+        <v>-69800</v>
       </c>
       <c r="E91" s="3">
-        <v>-81000</v>
+        <v>-84000</v>
       </c>
       <c r="F91" s="3">
-        <v>-101800</v>
+        <v>-80200</v>
       </c>
       <c r="G91" s="3">
-        <v>-15500</v>
+        <v>-100900</v>
       </c>
       <c r="H91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85400</v>
+        <v>-75100</v>
       </c>
       <c r="E94" s="3">
-        <v>-66900</v>
+        <v>-84600</v>
       </c>
       <c r="F94" s="3">
-        <v>-15500</v>
+        <v>-66300</v>
       </c>
       <c r="G94" s="3">
-        <v>-66100</v>
+        <v>-15400</v>
       </c>
       <c r="H94" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-42400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48000</v>
+        <v>18100</v>
       </c>
       <c r="E100" s="3">
-        <v>-45000</v>
+        <v>47500</v>
       </c>
       <c r="F100" s="3">
-        <v>-16000</v>
+        <v>-44600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2900</v>
+        <v>-15900</v>
       </c>
       <c r="H100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
-        <v>29300</v>
-      </c>
       <c r="J100" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>52900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4300</v>
+        <v>7400</v>
       </c>
       <c r="E102" s="3">
-        <v>-37400</v>
+        <v>4200</v>
       </c>
       <c r="F102" s="3">
-        <v>18200</v>
+        <v>-37100</v>
       </c>
       <c r="G102" s="3">
-        <v>-31200</v>
+        <v>18100</v>
       </c>
       <c r="H102" s="3">
-        <v>18000</v>
+        <v>-30900</v>
       </c>
       <c r="I102" s="3">
-        <v>60900</v>
+        <v>17800</v>
       </c>
       <c r="J102" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>217000</v>
+        <v>221900</v>
       </c>
       <c r="E8" s="3">
-        <v>235600</v>
+        <v>223600</v>
       </c>
       <c r="F8" s="3">
-        <v>257100</v>
+        <v>242800</v>
       </c>
       <c r="G8" s="3">
-        <v>210100</v>
+        <v>264900</v>
       </c>
       <c r="H8" s="3">
-        <v>155700</v>
+        <v>216600</v>
       </c>
       <c r="I8" s="3">
-        <v>152200</v>
+        <v>160500</v>
       </c>
       <c r="J8" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K8" s="3">
         <v>133800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>108800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>88500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169700</v>
+        <v>187500</v>
       </c>
       <c r="E9" s="3">
-        <v>153600</v>
+        <v>174900</v>
       </c>
       <c r="F9" s="3">
-        <v>174800</v>
+        <v>158300</v>
       </c>
       <c r="G9" s="3">
-        <v>146600</v>
+        <v>180100</v>
       </c>
       <c r="H9" s="3">
-        <v>93100</v>
+        <v>151100</v>
       </c>
       <c r="I9" s="3">
-        <v>86100</v>
+        <v>96000</v>
       </c>
       <c r="J9" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K9" s="3">
         <v>73100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47300</v>
+        <v>34400</v>
       </c>
       <c r="E10" s="3">
-        <v>82000</v>
+        <v>48800</v>
       </c>
       <c r="F10" s="3">
-        <v>82300</v>
+        <v>84500</v>
       </c>
       <c r="G10" s="3">
-        <v>63500</v>
+        <v>84800</v>
       </c>
       <c r="H10" s="3">
-        <v>62600</v>
+        <v>65500</v>
       </c>
       <c r="I10" s="3">
-        <v>66200</v>
+        <v>64500</v>
       </c>
       <c r="J10" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K10" s="3">
         <v>60600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,22 +880,23 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>600</v>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
@@ -891,25 +905,28 @@
         <v>300</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>5900</v>
       </c>
       <c r="E14" s="3">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="F14" s="3">
-        <v>8700</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
-        <v>16300</v>
+        <v>9000</v>
       </c>
       <c r="H14" s="3">
-        <v>4600</v>
+        <v>16800</v>
       </c>
       <c r="I14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>200000</v>
+        <v>214200</v>
       </c>
       <c r="E17" s="3">
-        <v>183000</v>
+        <v>206100</v>
       </c>
       <c r="F17" s="3">
-        <v>207600</v>
+        <v>188600</v>
       </c>
       <c r="G17" s="3">
-        <v>195600</v>
+        <v>214000</v>
       </c>
       <c r="H17" s="3">
-        <v>114000</v>
+        <v>201600</v>
       </c>
       <c r="I17" s="3">
-        <v>100100</v>
+        <v>117500</v>
       </c>
       <c r="J17" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K17" s="3">
         <v>97300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>17000</v>
+        <v>7600</v>
       </c>
       <c r="E18" s="3">
-        <v>52600</v>
+        <v>17500</v>
       </c>
       <c r="F18" s="3">
-        <v>49400</v>
+        <v>54200</v>
       </c>
       <c r="G18" s="3">
-        <v>14600</v>
+        <v>50900</v>
       </c>
       <c r="H18" s="3">
-        <v>41700</v>
+        <v>15000</v>
       </c>
       <c r="I18" s="3">
-        <v>52100</v>
+        <v>43000</v>
       </c>
       <c r="J18" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K18" s="3">
         <v>36400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>-5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8200</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3100</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>76000</v>
+        <v>64700</v>
       </c>
       <c r="E21" s="3">
-        <v>94200</v>
+        <v>78300</v>
       </c>
       <c r="F21" s="3">
-        <v>101300</v>
+        <v>97000</v>
       </c>
       <c r="G21" s="3">
-        <v>64400</v>
+        <v>104400</v>
       </c>
       <c r="H21" s="3">
-        <v>65100</v>
+        <v>66400</v>
       </c>
       <c r="I21" s="3">
-        <v>78900</v>
+        <v>67100</v>
       </c>
       <c r="J21" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K21" s="3">
         <v>54900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="H22" s="3">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="J22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>19700</v>
+        <v>2200</v>
       </c>
       <c r="E23" s="3">
-        <v>43600</v>
+        <v>20300</v>
       </c>
       <c r="F23" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="G23" s="3">
-        <v>11700</v>
+        <v>40200</v>
       </c>
       <c r="H23" s="3">
-        <v>36500</v>
+        <v>12100</v>
       </c>
       <c r="I23" s="3">
-        <v>51300</v>
+        <v>37600</v>
       </c>
       <c r="J23" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K23" s="3">
         <v>35800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>18100</v>
       </c>
       <c r="F24" s="3">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="3">
-        <v>11500</v>
+        <v>18100</v>
       </c>
       <c r="H24" s="3">
-        <v>15600</v>
+        <v>11800</v>
       </c>
       <c r="I24" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="J24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
-        <v>34900</v>
-      </c>
       <c r="F26" s="3">
-        <v>21500</v>
+        <v>35900</v>
       </c>
       <c r="G26" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>20900</v>
-      </c>
       <c r="I26" s="3">
-        <v>34100</v>
+        <v>21600</v>
       </c>
       <c r="J26" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K26" s="3">
         <v>24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>33700</v>
+        <v>3100</v>
       </c>
       <c r="F27" s="3">
-        <v>20400</v>
+        <v>34700</v>
       </c>
       <c r="G27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
-        <v>20900</v>
-      </c>
       <c r="I27" s="3">
-        <v>34100</v>
+        <v>21600</v>
       </c>
       <c r="J27" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>5300</v>
       </c>
       <c r="E32" s="3">
-        <v>8200</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>6000</v>
+        <v>8400</v>
       </c>
       <c r="G32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>3100</v>
-      </c>
       <c r="I32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>33700</v>
+        <v>3100</v>
       </c>
       <c r="F33" s="3">
-        <v>20400</v>
+        <v>34700</v>
       </c>
       <c r="G33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
-        <v>20900</v>
-      </c>
       <c r="I33" s="3">
-        <v>34100</v>
+        <v>21600</v>
       </c>
       <c r="J33" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>33700</v>
+        <v>3100</v>
       </c>
       <c r="F35" s="3">
-        <v>20400</v>
+        <v>34700</v>
       </c>
       <c r="G35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
-        <v>20900</v>
-      </c>
       <c r="I35" s="3">
-        <v>34100</v>
+        <v>21600</v>
       </c>
       <c r="J35" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,72 +1966,76 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>150100</v>
+        <v>121100</v>
       </c>
       <c r="E41" s="3">
+        <v>154700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>147000</v>
+      </c>
+      <c r="G41" s="3">
         <v>142600</v>
       </c>
-      <c r="F41" s="3">
-        <v>138400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>175500</v>
-      </c>
       <c r="H41" s="3">
-        <v>157400</v>
+        <v>180800</v>
       </c>
       <c r="I41" s="3">
-        <v>188300</v>
+        <v>162200</v>
       </c>
       <c r="J41" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K41" s="3">
         <v>170500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>112800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>500</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
       </c>
       <c r="H42" s="3">
+        <v>700</v>
+      </c>
+      <c r="I42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>35</v>
@@ -1956,260 +2046,281 @@
       <c r="M42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>96100</v>
+        <v>87500</v>
       </c>
       <c r="E43" s="3">
-        <v>116200</v>
+        <v>99000</v>
       </c>
       <c r="F43" s="3">
-        <v>101100</v>
+        <v>119800</v>
       </c>
       <c r="G43" s="3">
-        <v>89100</v>
+        <v>104100</v>
       </c>
       <c r="H43" s="3">
-        <v>94000</v>
+        <v>91800</v>
       </c>
       <c r="I43" s="3">
-        <v>100800</v>
+        <v>96800</v>
       </c>
       <c r="J43" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K43" s="3">
         <v>98900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>111400</v>
+        <v>110200</v>
       </c>
       <c r="E44" s="3">
-        <v>118000</v>
+        <v>114800</v>
       </c>
       <c r="F44" s="3">
-        <v>110900</v>
+        <v>121600</v>
       </c>
       <c r="G44" s="3">
-        <v>92200</v>
+        <v>114300</v>
       </c>
       <c r="H44" s="3">
-        <v>68000</v>
+        <v>95000</v>
       </c>
       <c r="I44" s="3">
-        <v>65100</v>
+        <v>70100</v>
       </c>
       <c r="J44" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K44" s="3">
         <v>45600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="E45" s="3">
-        <v>12300</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
-        <v>15800</v>
+        <v>12700</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>16300</v>
       </c>
       <c r="I45" s="3">
-        <v>7300</v>
+        <v>10000</v>
       </c>
       <c r="J45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>371900</v>
+        <v>335400</v>
       </c>
       <c r="E46" s="3">
-        <v>389600</v>
+        <v>383200</v>
       </c>
       <c r="F46" s="3">
-        <v>363300</v>
+        <v>401500</v>
       </c>
       <c r="G46" s="3">
-        <v>373200</v>
+        <v>374300</v>
       </c>
       <c r="H46" s="3">
-        <v>330300</v>
+        <v>384600</v>
       </c>
       <c r="I46" s="3">
-        <v>362600</v>
+        <v>340400</v>
       </c>
       <c r="J46" s="3">
+        <v>373700</v>
+      </c>
+      <c r="K46" s="3">
         <v>320600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>182500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>168800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>181000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G47" s="3">
         <v>6000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>53300</v>
+      </c>
+      <c r="J47" s="3">
         <v>6100</v>
       </c>
-      <c r="F47" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>51700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2234000</v>
+        <v>2304600</v>
       </c>
       <c r="E48" s="3">
-        <v>2222000</v>
+        <v>2302100</v>
       </c>
       <c r="F48" s="3">
-        <v>2213000</v>
+        <v>2289700</v>
       </c>
       <c r="G48" s="3">
-        <v>2148600</v>
+        <v>2280500</v>
       </c>
       <c r="H48" s="3">
-        <v>998300</v>
+        <v>2214100</v>
       </c>
       <c r="I48" s="3">
-        <v>1007300</v>
+        <v>1028700</v>
       </c>
       <c r="J48" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1022500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1045000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>990100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>973400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>938900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,34 +2448,37 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50500</v>
+        <v>60900</v>
       </c>
       <c r="E52" s="3">
-        <v>45200</v>
+        <v>52000</v>
       </c>
       <c r="F52" s="3">
-        <v>31000</v>
+        <v>46600</v>
       </c>
       <c r="G52" s="3">
-        <v>42700</v>
+        <v>31900</v>
       </c>
       <c r="H52" s="3">
-        <v>19600</v>
+        <v>44000</v>
       </c>
       <c r="I52" s="3">
-        <v>5800</v>
+        <v>20200</v>
       </c>
       <c r="J52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K52" s="3">
         <v>19700</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>35</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2662300</v>
+        <v>2707100</v>
       </c>
       <c r="E54" s="3">
-        <v>2662800</v>
+        <v>2743500</v>
       </c>
       <c r="F54" s="3">
-        <v>2613100</v>
+        <v>2744000</v>
       </c>
       <c r="G54" s="3">
-        <v>2587600</v>
+        <v>2692800</v>
       </c>
       <c r="H54" s="3">
-        <v>1399900</v>
+        <v>2666500</v>
       </c>
       <c r="I54" s="3">
-        <v>1381700</v>
+        <v>1442600</v>
       </c>
       <c r="J54" s="3">
+        <v>1423800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1363900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1288500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1222500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1220500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87200</v>
+        <v>95300</v>
       </c>
       <c r="E57" s="3">
-        <v>94200</v>
+        <v>89900</v>
       </c>
       <c r="F57" s="3">
-        <v>106700</v>
+        <v>97100</v>
       </c>
       <c r="G57" s="3">
-        <v>109400</v>
+        <v>109900</v>
       </c>
       <c r="H57" s="3">
-        <v>41000</v>
+        <v>112700</v>
       </c>
       <c r="I57" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="J57" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K57" s="3">
         <v>38300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="E58" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="F58" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="G58" s="3">
-        <v>199600</v>
+        <v>14000</v>
       </c>
       <c r="H58" s="3">
-        <v>161200</v>
+        <v>205700</v>
       </c>
       <c r="I58" s="3">
-        <v>163000</v>
+        <v>166100</v>
       </c>
       <c r="J58" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>63900</v>
+        <v>65100</v>
       </c>
       <c r="E59" s="3">
-        <v>80600</v>
+        <v>65900</v>
       </c>
       <c r="F59" s="3">
-        <v>95300</v>
+        <v>83000</v>
       </c>
       <c r="G59" s="3">
-        <v>78600</v>
+        <v>98200</v>
       </c>
       <c r="H59" s="3">
+        <v>81000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>63200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>77400</v>
+      </c>
+      <c r="L59" s="3">
         <v>61400</v>
       </c>
-      <c r="I59" s="3">
-        <v>61700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>77400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>61400</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164400</v>
+        <v>174100</v>
       </c>
       <c r="E60" s="3">
-        <v>188100</v>
+        <v>169400</v>
       </c>
       <c r="F60" s="3">
-        <v>215500</v>
+        <v>193900</v>
       </c>
       <c r="G60" s="3">
-        <v>387600</v>
+        <v>222100</v>
       </c>
       <c r="H60" s="3">
-        <v>263500</v>
+        <v>399400</v>
       </c>
       <c r="I60" s="3">
-        <v>267300</v>
+        <v>271600</v>
       </c>
       <c r="J60" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K60" s="3">
         <v>124600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>105500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>133100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>115100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>302000</v>
+        <v>290300</v>
       </c>
       <c r="E61" s="3">
-        <v>278000</v>
+        <v>311200</v>
       </c>
       <c r="F61" s="3">
-        <v>227900</v>
+        <v>286500</v>
       </c>
       <c r="G61" s="3">
-        <v>83600</v>
+        <v>234900</v>
       </c>
       <c r="H61" s="3">
-        <v>66400</v>
+        <v>86100</v>
       </c>
       <c r="I61" s="3">
-        <v>66600</v>
+        <v>68500</v>
       </c>
       <c r="J61" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K61" s="3">
         <v>221200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>190700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>217500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>207200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>319100</v>
+        <v>325000</v>
       </c>
       <c r="E62" s="3">
-        <v>314800</v>
+        <v>328900</v>
       </c>
       <c r="F62" s="3">
-        <v>322100</v>
+        <v>324400</v>
       </c>
       <c r="G62" s="3">
-        <v>289200</v>
+        <v>331900</v>
       </c>
       <c r="H62" s="3">
-        <v>74200</v>
+        <v>298000</v>
       </c>
       <c r="I62" s="3">
-        <v>74700</v>
+        <v>76400</v>
       </c>
       <c r="J62" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K62" s="3">
         <v>80100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>856200</v>
+        <v>858200</v>
       </c>
       <c r="E66" s="3">
-        <v>852400</v>
+        <v>882300</v>
       </c>
       <c r="F66" s="3">
-        <v>835900</v>
+        <v>878400</v>
       </c>
       <c r="G66" s="3">
-        <v>829400</v>
+        <v>861400</v>
       </c>
       <c r="H66" s="3">
-        <v>404100</v>
+        <v>854700</v>
       </c>
       <c r="I66" s="3">
-        <v>408600</v>
+        <v>416500</v>
       </c>
       <c r="J66" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K66" s="3">
         <v>425900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>366600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>340700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>416500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>385600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>415300</v>
+        <v>424500</v>
       </c>
       <c r="E72" s="3">
-        <v>412200</v>
+        <v>428000</v>
       </c>
       <c r="F72" s="3">
-        <v>379100</v>
+        <v>424800</v>
       </c>
       <c r="G72" s="3">
-        <v>358300</v>
+        <v>390700</v>
       </c>
       <c r="H72" s="3">
-        <v>346400</v>
+        <v>369200</v>
       </c>
       <c r="I72" s="3">
-        <v>324800</v>
+        <v>356900</v>
       </c>
       <c r="J72" s="3">
+        <v>334700</v>
+      </c>
+      <c r="K72" s="3">
         <v>301700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>279700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>256000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>263400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>273600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1806100</v>
+        <v>1848900</v>
       </c>
       <c r="E76" s="3">
-        <v>1810400</v>
+        <v>1861200</v>
       </c>
       <c r="F76" s="3">
-        <v>1777200</v>
+        <v>1865600</v>
       </c>
       <c r="G76" s="3">
-        <v>1758100</v>
+        <v>1831400</v>
       </c>
       <c r="H76" s="3">
-        <v>995800</v>
+        <v>1811700</v>
       </c>
       <c r="I76" s="3">
-        <v>973000</v>
+        <v>1026200</v>
       </c>
       <c r="J76" s="3">
+        <v>1002700</v>
+      </c>
+      <c r="K76" s="3">
         <v>938000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>921900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>881800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>803900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>815000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>33700</v>
+        <v>3100</v>
       </c>
       <c r="F81" s="3">
-        <v>20400</v>
+        <v>34700</v>
       </c>
       <c r="G81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
-        <v>20900</v>
-      </c>
       <c r="I81" s="3">
-        <v>34100</v>
+        <v>21600</v>
       </c>
       <c r="J81" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55500</v>
+        <v>62400</v>
       </c>
       <c r="E83" s="3">
-        <v>49800</v>
+        <v>57200</v>
       </c>
       <c r="F83" s="3">
-        <v>57900</v>
+        <v>51300</v>
       </c>
       <c r="G83" s="3">
-        <v>48800</v>
+        <v>59700</v>
       </c>
       <c r="H83" s="3">
-        <v>26500</v>
+        <v>50300</v>
       </c>
       <c r="I83" s="3">
-        <v>24800</v>
+        <v>27300</v>
       </c>
       <c r="J83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K83" s="3">
         <v>17800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60400</v>
+        <v>86100</v>
       </c>
       <c r="E89" s="3">
-        <v>43000</v>
+        <v>62200</v>
       </c>
       <c r="F89" s="3">
-        <v>73800</v>
+        <v>44300</v>
       </c>
       <c r="G89" s="3">
-        <v>50900</v>
+        <v>76000</v>
       </c>
       <c r="H89" s="3">
-        <v>38200</v>
+        <v>52400</v>
       </c>
       <c r="I89" s="3">
-        <v>27300</v>
+        <v>39400</v>
       </c>
       <c r="J89" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K89" s="3">
         <v>40400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69800</v>
+        <v>-78500</v>
       </c>
       <c r="E91" s="3">
-        <v>-84000</v>
+        <v>-71900</v>
       </c>
       <c r="F91" s="3">
-        <v>-80200</v>
+        <v>-86600</v>
       </c>
       <c r="G91" s="3">
-        <v>-100900</v>
+        <v>-82700</v>
       </c>
       <c r="H91" s="3">
-        <v>-15400</v>
+        <v>-103900</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-15900</v>
       </c>
       <c r="J91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75100</v>
+        <v>-78500</v>
       </c>
       <c r="E94" s="3">
-        <v>-84600</v>
+        <v>-77400</v>
       </c>
       <c r="F94" s="3">
-        <v>-66300</v>
+        <v>-87200</v>
       </c>
       <c r="G94" s="3">
-        <v>-15400</v>
+        <v>-68300</v>
       </c>
       <c r="H94" s="3">
-        <v>-65500</v>
+        <v>-15900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6000</v>
+        <v>-67500</v>
       </c>
       <c r="J94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18100</v>
+        <v>-31500</v>
       </c>
       <c r="E100" s="3">
-        <v>47500</v>
+        <v>18700</v>
       </c>
       <c r="F100" s="3">
-        <v>-44600</v>
+        <v>49000</v>
       </c>
       <c r="G100" s="3">
-        <v>-15900</v>
+        <v>-46000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2800</v>
+        <v>-16400</v>
       </c>
       <c r="I100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>52900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4000</v>
+        <v>-9700</v>
       </c>
       <c r="E101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7400</v>
+        <v>-33600</v>
       </c>
       <c r="E102" s="3">
-        <v>4200</v>
+        <v>7700</v>
       </c>
       <c r="F102" s="3">
-        <v>-37100</v>
+        <v>4400</v>
       </c>
       <c r="G102" s="3">
-        <v>18100</v>
+        <v>-38200</v>
       </c>
       <c r="H102" s="3">
-        <v>-30900</v>
+        <v>18600</v>
       </c>
       <c r="I102" s="3">
-        <v>17800</v>
+        <v>-31800</v>
       </c>
       <c r="J102" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K102" s="3">
         <v>60400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>221900</v>
+        <v>230400</v>
       </c>
       <c r="E8" s="3">
-        <v>223600</v>
+        <v>232200</v>
       </c>
       <c r="F8" s="3">
-        <v>242800</v>
+        <v>252100</v>
       </c>
       <c r="G8" s="3">
-        <v>264900</v>
+        <v>275000</v>
       </c>
       <c r="H8" s="3">
-        <v>216600</v>
+        <v>224800</v>
       </c>
       <c r="I8" s="3">
-        <v>160500</v>
+        <v>166600</v>
       </c>
       <c r="J8" s="3">
-        <v>156900</v>
+        <v>162900</v>
       </c>
       <c r="K8" s="3">
         <v>133800</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>187500</v>
+        <v>194700</v>
       </c>
       <c r="E9" s="3">
-        <v>174900</v>
+        <v>181500</v>
       </c>
       <c r="F9" s="3">
-        <v>158300</v>
+        <v>164300</v>
       </c>
       <c r="G9" s="3">
-        <v>180100</v>
+        <v>187000</v>
       </c>
       <c r="H9" s="3">
-        <v>151100</v>
+        <v>156900</v>
       </c>
       <c r="I9" s="3">
-        <v>96000</v>
+        <v>99600</v>
       </c>
       <c r="J9" s="3">
-        <v>88700</v>
+        <v>92100</v>
       </c>
       <c r="K9" s="3">
         <v>73100</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="E10" s="3">
-        <v>48800</v>
+        <v>50600</v>
       </c>
       <c r="F10" s="3">
-        <v>84500</v>
+        <v>87800</v>
       </c>
       <c r="G10" s="3">
-        <v>84800</v>
+        <v>88000</v>
       </c>
       <c r="H10" s="3">
-        <v>65500</v>
+        <v>68000</v>
       </c>
       <c r="I10" s="3">
-        <v>64500</v>
+        <v>67000</v>
       </c>
       <c r="J10" s="3">
-        <v>68200</v>
+        <v>70800</v>
       </c>
       <c r="K10" s="3">
         <v>60600</v>
@@ -890,13 +890,13 @@
         <v>35</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
@@ -975,22 +975,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G14" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="H14" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="I14" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
@@ -1078,25 +1078,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>214200</v>
+        <v>222400</v>
       </c>
       <c r="E17" s="3">
-        <v>206100</v>
+        <v>213900</v>
       </c>
       <c r="F17" s="3">
-        <v>188600</v>
+        <v>195800</v>
       </c>
       <c r="G17" s="3">
-        <v>214000</v>
+        <v>222100</v>
       </c>
       <c r="H17" s="3">
-        <v>201600</v>
+        <v>209300</v>
       </c>
       <c r="I17" s="3">
-        <v>117500</v>
+        <v>122000</v>
       </c>
       <c r="J17" s="3">
-        <v>103100</v>
+        <v>107100</v>
       </c>
       <c r="K17" s="3">
         <v>97300</v>
@@ -1122,25 +1122,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E18" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="F18" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="G18" s="3">
-        <v>50900</v>
+        <v>52900</v>
       </c>
       <c r="H18" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="I18" s="3">
-        <v>43000</v>
+        <v>44700</v>
       </c>
       <c r="J18" s="3">
-        <v>53700</v>
+        <v>55800</v>
       </c>
       <c r="K18" s="3">
         <v>36400</v>
@@ -1184,25 +1184,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1228,25 +1228,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>64700</v>
+        <v>67200</v>
       </c>
       <c r="E21" s="3">
-        <v>78300</v>
+        <v>81300</v>
       </c>
       <c r="F21" s="3">
-        <v>97000</v>
+        <v>100700</v>
       </c>
       <c r="G21" s="3">
-        <v>104400</v>
+        <v>108400</v>
       </c>
       <c r="H21" s="3">
-        <v>66400</v>
+        <v>68900</v>
       </c>
       <c r="I21" s="3">
-        <v>67100</v>
+        <v>69700</v>
       </c>
       <c r="J21" s="3">
-        <v>81300</v>
+        <v>84400</v>
       </c>
       <c r="K21" s="3">
         <v>54900</v>
@@ -1281,16 +1281,16 @@
         <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1316,25 +1316,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E23" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="F23" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="G23" s="3">
-        <v>40200</v>
+        <v>41700</v>
       </c>
       <c r="H23" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="I23" s="3">
-        <v>37600</v>
+        <v>39000</v>
       </c>
       <c r="J23" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="K23" s="3">
         <v>35800</v>
@@ -1360,25 +1360,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E24" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="F24" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="G24" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="H24" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="I24" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="J24" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="K24" s="3">
         <v>11800</v>
@@ -1448,25 +1448,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="E26" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F26" s="3">
-        <v>35900</v>
+        <v>37300</v>
       </c>
       <c r="G26" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="J26" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K26" s="3">
         <v>24100</v>
@@ -1492,25 +1492,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E27" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F27" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="J27" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1712,25 +1712,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G32" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1756,25 +1756,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E33" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F33" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="J33" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1844,25 +1844,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E35" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F35" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="J35" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1973,25 +1973,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>121100</v>
+        <v>125700</v>
       </c>
       <c r="E41" s="3">
-        <v>154700</v>
+        <v>160600</v>
       </c>
       <c r="F41" s="3">
-        <v>147000</v>
+        <v>152600</v>
       </c>
       <c r="G41" s="3">
-        <v>142600</v>
+        <v>148100</v>
       </c>
       <c r="H41" s="3">
-        <v>180800</v>
+        <v>187700</v>
       </c>
       <c r="I41" s="3">
-        <v>162200</v>
+        <v>168400</v>
       </c>
       <c r="J41" s="3">
-        <v>194000</v>
+        <v>201400</v>
       </c>
       <c r="K41" s="3">
         <v>170500</v>
@@ -2023,7 +2023,7 @@
         <v>300</v>
       </c>
       <c r="F42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
@@ -2032,10 +2032,10 @@
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>35</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87500</v>
+        <v>90900</v>
       </c>
       <c r="E43" s="3">
-        <v>99000</v>
+        <v>102800</v>
       </c>
       <c r="F43" s="3">
-        <v>119800</v>
+        <v>124300</v>
       </c>
       <c r="G43" s="3">
-        <v>104100</v>
+        <v>108100</v>
       </c>
       <c r="H43" s="3">
-        <v>91800</v>
+        <v>95400</v>
       </c>
       <c r="I43" s="3">
-        <v>96800</v>
+        <v>100500</v>
       </c>
       <c r="J43" s="3">
-        <v>103800</v>
+        <v>107800</v>
       </c>
       <c r="K43" s="3">
         <v>98900</v>
@@ -2105,25 +2105,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>110200</v>
+        <v>114400</v>
       </c>
       <c r="E44" s="3">
-        <v>114800</v>
+        <v>119200</v>
       </c>
       <c r="F44" s="3">
-        <v>121600</v>
+        <v>126200</v>
       </c>
       <c r="G44" s="3">
-        <v>114300</v>
+        <v>118700</v>
       </c>
       <c r="H44" s="3">
-        <v>95000</v>
+        <v>98600</v>
       </c>
       <c r="I44" s="3">
-        <v>70100</v>
+        <v>72800</v>
       </c>
       <c r="J44" s="3">
-        <v>67100</v>
+        <v>69700</v>
       </c>
       <c r="K44" s="3">
         <v>45600</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16500</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="G45" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I45" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="J45" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="K45" s="3">
         <v>5600</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>335400</v>
+        <v>348200</v>
       </c>
       <c r="E46" s="3">
-        <v>383200</v>
+        <v>397900</v>
       </c>
       <c r="F46" s="3">
-        <v>401500</v>
+        <v>416800</v>
       </c>
       <c r="G46" s="3">
-        <v>374300</v>
+        <v>388700</v>
       </c>
       <c r="H46" s="3">
-        <v>384600</v>
+        <v>399300</v>
       </c>
       <c r="I46" s="3">
-        <v>340400</v>
+        <v>353400</v>
       </c>
       <c r="J46" s="3">
-        <v>373700</v>
+        <v>388000</v>
       </c>
       <c r="K46" s="3">
         <v>320600</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E47" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3">
-        <v>6000</v>
-      </c>
       <c r="H47" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="I47" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="J47" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="K47" s="3">
         <v>1200</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2304600</v>
+        <v>2392700</v>
       </c>
       <c r="E48" s="3">
-        <v>2302100</v>
+        <v>2390000</v>
       </c>
       <c r="F48" s="3">
-        <v>2289700</v>
+        <v>2377200</v>
       </c>
       <c r="G48" s="3">
-        <v>2280500</v>
+        <v>2367700</v>
       </c>
       <c r="H48" s="3">
-        <v>2214100</v>
+        <v>2298700</v>
       </c>
       <c r="I48" s="3">
-        <v>1028700</v>
+        <v>1068000</v>
       </c>
       <c r="J48" s="3">
-        <v>1038000</v>
+        <v>1077700</v>
       </c>
       <c r="K48" s="3">
         <v>1022500</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60900</v>
+        <v>63300</v>
       </c>
       <c r="E52" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="F52" s="3">
-        <v>46600</v>
+        <v>48400</v>
       </c>
       <c r="G52" s="3">
-        <v>31900</v>
+        <v>33100</v>
       </c>
       <c r="H52" s="3">
-        <v>44000</v>
+        <v>45700</v>
       </c>
       <c r="I52" s="3">
-        <v>20200</v>
+        <v>21000</v>
       </c>
       <c r="J52" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2707100</v>
+        <v>2810500</v>
       </c>
       <c r="E54" s="3">
-        <v>2743500</v>
+        <v>2848400</v>
       </c>
       <c r="F54" s="3">
-        <v>2744000</v>
+        <v>2848900</v>
       </c>
       <c r="G54" s="3">
-        <v>2692800</v>
+        <v>2795700</v>
       </c>
       <c r="H54" s="3">
-        <v>2666500</v>
+        <v>2768400</v>
       </c>
       <c r="I54" s="3">
-        <v>1442600</v>
+        <v>1497700</v>
       </c>
       <c r="J54" s="3">
-        <v>1423800</v>
+        <v>1478200</v>
       </c>
       <c r="K54" s="3">
         <v>1363900</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95300</v>
+        <v>98900</v>
       </c>
       <c r="E57" s="3">
-        <v>89900</v>
+        <v>93300</v>
       </c>
       <c r="F57" s="3">
-        <v>97100</v>
+        <v>100800</v>
       </c>
       <c r="G57" s="3">
-        <v>109900</v>
+        <v>114100</v>
       </c>
       <c r="H57" s="3">
-        <v>112700</v>
+        <v>117000</v>
       </c>
       <c r="I57" s="3">
-        <v>42200</v>
+        <v>43800</v>
       </c>
       <c r="J57" s="3">
-        <v>43900</v>
+        <v>45600</v>
       </c>
       <c r="K57" s="3">
         <v>38300</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="F58" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="G58" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="H58" s="3">
-        <v>205700</v>
+        <v>213600</v>
       </c>
       <c r="I58" s="3">
-        <v>166100</v>
+        <v>172500</v>
       </c>
       <c r="J58" s="3">
-        <v>167900</v>
+        <v>174400</v>
       </c>
       <c r="K58" s="3">
         <v>9000</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65100</v>
+        <v>67600</v>
       </c>
       <c r="E59" s="3">
-        <v>65900</v>
+        <v>68400</v>
       </c>
       <c r="F59" s="3">
-        <v>83000</v>
+        <v>86200</v>
       </c>
       <c r="G59" s="3">
-        <v>98200</v>
+        <v>101900</v>
       </c>
       <c r="H59" s="3">
-        <v>81000</v>
+        <v>84100</v>
       </c>
       <c r="I59" s="3">
-        <v>63200</v>
+        <v>65600</v>
       </c>
       <c r="J59" s="3">
-        <v>63500</v>
+        <v>66000</v>
       </c>
       <c r="K59" s="3">
         <v>77400</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174100</v>
+        <v>180800</v>
       </c>
       <c r="E60" s="3">
-        <v>169400</v>
+        <v>175900</v>
       </c>
       <c r="F60" s="3">
-        <v>193900</v>
+        <v>201300</v>
       </c>
       <c r="G60" s="3">
-        <v>222100</v>
+        <v>230600</v>
       </c>
       <c r="H60" s="3">
-        <v>399400</v>
+        <v>414700</v>
       </c>
       <c r="I60" s="3">
-        <v>271600</v>
+        <v>282000</v>
       </c>
       <c r="J60" s="3">
-        <v>275400</v>
+        <v>285900</v>
       </c>
       <c r="K60" s="3">
         <v>124600</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>290300</v>
+        <v>301400</v>
       </c>
       <c r="E61" s="3">
-        <v>311200</v>
+        <v>323100</v>
       </c>
       <c r="F61" s="3">
-        <v>286500</v>
+        <v>297400</v>
       </c>
       <c r="G61" s="3">
-        <v>234900</v>
+        <v>243900</v>
       </c>
       <c r="H61" s="3">
-        <v>86100</v>
+        <v>89400</v>
       </c>
       <c r="I61" s="3">
-        <v>68500</v>
+        <v>71100</v>
       </c>
       <c r="J61" s="3">
-        <v>68700</v>
+        <v>71300</v>
       </c>
       <c r="K61" s="3">
         <v>221200</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>325000</v>
+        <v>337400</v>
       </c>
       <c r="E62" s="3">
-        <v>328900</v>
+        <v>341400</v>
       </c>
       <c r="F62" s="3">
-        <v>324400</v>
+        <v>336800</v>
       </c>
       <c r="G62" s="3">
-        <v>331900</v>
+        <v>344600</v>
       </c>
       <c r="H62" s="3">
-        <v>298000</v>
+        <v>309400</v>
       </c>
       <c r="I62" s="3">
-        <v>76400</v>
+        <v>79300</v>
       </c>
       <c r="J62" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="K62" s="3">
         <v>80100</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>858200</v>
+        <v>890900</v>
       </c>
       <c r="E66" s="3">
-        <v>882300</v>
+        <v>916100</v>
       </c>
       <c r="F66" s="3">
-        <v>878400</v>
+        <v>912000</v>
       </c>
       <c r="G66" s="3">
-        <v>861400</v>
+        <v>894300</v>
       </c>
       <c r="H66" s="3">
-        <v>854700</v>
+        <v>887400</v>
       </c>
       <c r="I66" s="3">
-        <v>416500</v>
+        <v>432400</v>
       </c>
       <c r="J66" s="3">
-        <v>421100</v>
+        <v>437200</v>
       </c>
       <c r="K66" s="3">
         <v>425900</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>424500</v>
+        <v>440700</v>
       </c>
       <c r="E72" s="3">
-        <v>428000</v>
+        <v>444300</v>
       </c>
       <c r="F72" s="3">
-        <v>424800</v>
+        <v>441100</v>
       </c>
       <c r="G72" s="3">
-        <v>390700</v>
+        <v>405600</v>
       </c>
       <c r="H72" s="3">
-        <v>369200</v>
+        <v>383300</v>
       </c>
       <c r="I72" s="3">
-        <v>356900</v>
+        <v>370600</v>
       </c>
       <c r="J72" s="3">
-        <v>334700</v>
+        <v>347500</v>
       </c>
       <c r="K72" s="3">
         <v>301700</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1848900</v>
+        <v>1919600</v>
       </c>
       <c r="E76" s="3">
-        <v>1861200</v>
+        <v>1932300</v>
       </c>
       <c r="F76" s="3">
-        <v>1865600</v>
+        <v>1936900</v>
       </c>
       <c r="G76" s="3">
-        <v>1831400</v>
+        <v>1901400</v>
       </c>
       <c r="H76" s="3">
-        <v>1811700</v>
+        <v>1881000</v>
       </c>
       <c r="I76" s="3">
-        <v>1026200</v>
+        <v>1065400</v>
       </c>
       <c r="J76" s="3">
-        <v>1002700</v>
+        <v>1041000</v>
       </c>
       <c r="K76" s="3">
         <v>938000</v>
@@ -3572,25 +3572,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E81" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F81" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="J81" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62400</v>
+        <v>64800</v>
       </c>
       <c r="E83" s="3">
-        <v>57200</v>
+        <v>59400</v>
       </c>
       <c r="F83" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="G83" s="3">
-        <v>59700</v>
+        <v>62000</v>
       </c>
       <c r="H83" s="3">
-        <v>50300</v>
+        <v>52200</v>
       </c>
       <c r="I83" s="3">
-        <v>27300</v>
+        <v>28400</v>
       </c>
       <c r="J83" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="K83" s="3">
         <v>17800</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>86100</v>
+        <v>89400</v>
       </c>
       <c r="E89" s="3">
-        <v>62200</v>
+        <v>64600</v>
       </c>
       <c r="F89" s="3">
-        <v>44300</v>
+        <v>46000</v>
       </c>
       <c r="G89" s="3">
-        <v>76000</v>
+        <v>78900</v>
       </c>
       <c r="H89" s="3">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="I89" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="J89" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="K89" s="3">
         <v>40400</v>
@@ -3960,22 +3960,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-78500</v>
+        <v>-81500</v>
       </c>
       <c r="E91" s="3">
-        <v>-71900</v>
+        <v>-74600</v>
       </c>
       <c r="F91" s="3">
-        <v>-86600</v>
+        <v>-89900</v>
       </c>
       <c r="G91" s="3">
-        <v>-82700</v>
+        <v>-85800</v>
       </c>
       <c r="H91" s="3">
-        <v>-103900</v>
+        <v>-107900</v>
       </c>
       <c r="I91" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78500</v>
+        <v>-81500</v>
       </c>
       <c r="E94" s="3">
-        <v>-77400</v>
+        <v>-80300</v>
       </c>
       <c r="F94" s="3">
-        <v>-87200</v>
+        <v>-90500</v>
       </c>
       <c r="G94" s="3">
-        <v>-68300</v>
+        <v>-70900</v>
       </c>
       <c r="H94" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="I94" s="3">
-        <v>-67500</v>
+        <v>-70100</v>
       </c>
       <c r="J94" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="K94" s="3">
         <v>-42000</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31500</v>
+        <v>-32700</v>
       </c>
       <c r="E100" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="F100" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="G100" s="3">
-        <v>-46000</v>
+        <v>-47700</v>
       </c>
       <c r="H100" s="3">
-        <v>-16400</v>
+        <v>-17000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="K100" s="3">
         <v>29100</v>
@@ -4374,10 +4374,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="E101" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F101" s="3">
         <v>-1700</v>
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I101" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33600</v>
+        <v>-34900</v>
       </c>
       <c r="E102" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F102" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G102" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="H102" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="I102" s="3">
-        <v>-31800</v>
+        <v>-33000</v>
       </c>
       <c r="J102" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="K102" s="3">
         <v>60400</v>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230400</v>
+        <v>237200</v>
       </c>
       <c r="E8" s="3">
-        <v>232200</v>
+        <v>222300</v>
       </c>
       <c r="F8" s="3">
-        <v>252100</v>
+        <v>224900</v>
       </c>
       <c r="G8" s="3">
-        <v>275000</v>
+        <v>226700</v>
       </c>
       <c r="H8" s="3">
-        <v>224800</v>
+        <v>246100</v>
       </c>
       <c r="I8" s="3">
+        <v>268500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K8" s="3">
         <v>166600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>162900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>133800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>108800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>60500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>88500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>194700</v>
+        <v>182600</v>
       </c>
       <c r="E9" s="3">
-        <v>181500</v>
+        <v>182100</v>
       </c>
       <c r="F9" s="3">
-        <v>164300</v>
+        <v>190100</v>
       </c>
       <c r="G9" s="3">
-        <v>187000</v>
+        <v>177200</v>
       </c>
       <c r="H9" s="3">
-        <v>156900</v>
+        <v>160400</v>
       </c>
       <c r="I9" s="3">
+        <v>182600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K9" s="3">
         <v>99600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>92100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>73100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>54000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>51200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>56700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35700</v>
+        <v>54600</v>
       </c>
       <c r="E10" s="3">
-        <v>50600</v>
+        <v>40300</v>
       </c>
       <c r="F10" s="3">
-        <v>87800</v>
+        <v>34800</v>
       </c>
       <c r="G10" s="3">
-        <v>88000</v>
+        <v>49400</v>
       </c>
       <c r="H10" s="3">
-        <v>68000</v>
+        <v>85700</v>
       </c>
       <c r="I10" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K10" s="3">
         <v>67000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>70800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>60600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>54800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>17700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
       </c>
       <c r="K12" s="3">
+        <v>300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>300</v>
+      </c>
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>5600</v>
+        <v>252500</v>
       </c>
       <c r="F14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>17500</v>
-      </c>
       <c r="I14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>222400</v>
+        <v>204900</v>
       </c>
       <c r="E17" s="3">
-        <v>213900</v>
+        <v>456100</v>
       </c>
       <c r="F17" s="3">
-        <v>195800</v>
+        <v>217200</v>
       </c>
       <c r="G17" s="3">
-        <v>222100</v>
+        <v>208900</v>
       </c>
       <c r="H17" s="3">
-        <v>209300</v>
+        <v>191200</v>
       </c>
       <c r="I17" s="3">
+        <v>216900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K17" s="3">
         <v>122000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>107100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>97300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>71700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>58300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>58200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>76900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7900</v>
+        <v>32300</v>
       </c>
       <c r="E18" s="3">
-        <v>18200</v>
+        <v>-233700</v>
       </c>
       <c r="F18" s="3">
-        <v>56300</v>
+        <v>7700</v>
       </c>
       <c r="G18" s="3">
-        <v>52900</v>
+        <v>17800</v>
       </c>
       <c r="H18" s="3">
-        <v>15600</v>
+        <v>54900</v>
       </c>
       <c r="I18" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K18" s="3">
         <v>44700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>55800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>36400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>37100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-4500</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>-8700</v>
+        <v>-5400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>67200</v>
+        <v>87500</v>
       </c>
       <c r="E21" s="3">
-        <v>81300</v>
+        <v>-175600</v>
       </c>
       <c r="F21" s="3">
-        <v>100700</v>
+        <v>65600</v>
       </c>
       <c r="G21" s="3">
-        <v>108400</v>
+        <v>79400</v>
       </c>
       <c r="H21" s="3">
-        <v>68900</v>
+        <v>98400</v>
       </c>
       <c r="I21" s="3">
+        <v>105900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K21" s="3">
         <v>69700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>84400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>54900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>51200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>40800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
-      </c>
       <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2300</v>
+        <v>26700</v>
       </c>
       <c r="E23" s="3">
-        <v>21100</v>
+        <v>-237300</v>
       </c>
       <c r="F23" s="3">
-        <v>46700</v>
+        <v>2200</v>
       </c>
       <c r="G23" s="3">
-        <v>41700</v>
+        <v>20600</v>
       </c>
       <c r="H23" s="3">
-        <v>12600</v>
+        <v>45600</v>
       </c>
       <c r="I23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K23" s="3">
         <v>39000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>54900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>35800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>25700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>10700</v>
       </c>
       <c r="E24" s="3">
-        <v>18800</v>
+        <v>-20700</v>
       </c>
       <c r="F24" s="3">
-        <v>9400</v>
+        <v>7800</v>
       </c>
       <c r="G24" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H24" s="3">
-        <v>12300</v>
+        <v>9200</v>
       </c>
       <c r="I24" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K24" s="3">
         <v>16700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>19500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-5700</v>
+        <v>16000</v>
       </c>
       <c r="E26" s="3">
+        <v>-216600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>23000</v>
-      </c>
       <c r="H26" s="3">
-        <v>300</v>
+        <v>36400</v>
       </c>
       <c r="I26" s="3">
         <v>22400</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>22400</v>
+      </c>
+      <c r="L26" s="3">
         <v>36500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>17100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>24300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-5200</v>
+        <v>14700</v>
       </c>
       <c r="E27" s="3">
-        <v>3200</v>
+        <v>-206200</v>
       </c>
       <c r="F27" s="3">
-        <v>36000</v>
+        <v>-5100</v>
       </c>
       <c r="G27" s="3">
-        <v>21800</v>
+        <v>3100</v>
       </c>
       <c r="H27" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>22400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>36500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>17100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>24300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>8700</v>
+        <v>5400</v>
       </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-5200</v>
+        <v>14700</v>
       </c>
       <c r="E33" s="3">
-        <v>3200</v>
+        <v>-206200</v>
       </c>
       <c r="F33" s="3">
-        <v>36000</v>
+        <v>-5100</v>
       </c>
       <c r="G33" s="3">
-        <v>21800</v>
+        <v>3100</v>
       </c>
       <c r="H33" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>22400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>36500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>17100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>24300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-5200</v>
+        <v>14700</v>
       </c>
       <c r="E35" s="3">
-        <v>3200</v>
+        <v>-206200</v>
       </c>
       <c r="F35" s="3">
-        <v>36000</v>
+        <v>-5100</v>
       </c>
       <c r="G35" s="3">
-        <v>21800</v>
+        <v>3100</v>
       </c>
       <c r="H35" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>22400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>36500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>17100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>24300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,81 +2138,89 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>125700</v>
+        <v>114400</v>
       </c>
       <c r="E41" s="3">
-        <v>160600</v>
+        <v>108700</v>
       </c>
       <c r="F41" s="3">
-        <v>152600</v>
+        <v>122700</v>
       </c>
       <c r="G41" s="3">
-        <v>148100</v>
+        <v>156800</v>
       </c>
       <c r="H41" s="3">
-        <v>187700</v>
+        <v>149000</v>
       </c>
       <c r="I41" s="3">
+        <v>144600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>183300</v>
+      </c>
+      <c r="K41" s="3">
         <v>168400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>201400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>170500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>111100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>97700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>112800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>107000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>35</v>
@@ -2049,278 +2228,320 @@
       <c r="N42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90900</v>
+        <v>107100</v>
       </c>
       <c r="E43" s="3">
-        <v>102800</v>
+        <v>93000</v>
       </c>
       <c r="F43" s="3">
-        <v>124300</v>
+        <v>88700</v>
       </c>
       <c r="G43" s="3">
-        <v>108100</v>
+        <v>100400</v>
       </c>
       <c r="H43" s="3">
-        <v>95400</v>
+        <v>121400</v>
       </c>
       <c r="I43" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K43" s="3">
         <v>100500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>107800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>98900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>46300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>43300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>37500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>61200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>114400</v>
+        <v>121300</v>
       </c>
       <c r="E44" s="3">
-        <v>119200</v>
+        <v>124200</v>
       </c>
       <c r="F44" s="3">
-        <v>126200</v>
+        <v>111700</v>
       </c>
       <c r="G44" s="3">
-        <v>118700</v>
+        <v>116400</v>
       </c>
       <c r="H44" s="3">
-        <v>98600</v>
+        <v>123200</v>
       </c>
       <c r="I44" s="3">
+        <v>115900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K44" s="3">
         <v>72800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>69700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>45600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>17000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>19000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>18600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>14600</v>
       </c>
       <c r="E45" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="F45" s="3">
-        <v>13200</v>
+        <v>16800</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
-        <v>16900</v>
+        <v>12900</v>
       </c>
       <c r="I45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K45" s="3">
         <v>10300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>348200</v>
+        <v>357500</v>
       </c>
       <c r="E46" s="3">
-        <v>397900</v>
+        <v>341200</v>
       </c>
       <c r="F46" s="3">
-        <v>416800</v>
+        <v>340000</v>
       </c>
       <c r="G46" s="3">
-        <v>388700</v>
+        <v>388500</v>
       </c>
       <c r="H46" s="3">
-        <v>399300</v>
+        <v>407000</v>
       </c>
       <c r="I46" s="3">
+        <v>379500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>389900</v>
+      </c>
+      <c r="K46" s="3">
         <v>353400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>388000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>320600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>182500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>168800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>181000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>195100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="G47" s="3">
         <v>6300</v>
       </c>
       <c r="H47" s="3">
-        <v>24600</v>
+        <v>6300</v>
       </c>
       <c r="I47" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K47" s="3">
         <v>55300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>61100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>63700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>66000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>66600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2392700</v>
+        <v>2197700</v>
       </c>
       <c r="E48" s="3">
-        <v>2390000</v>
+        <v>2116300</v>
       </c>
       <c r="F48" s="3">
-        <v>2377200</v>
+        <v>2336100</v>
       </c>
       <c r="G48" s="3">
-        <v>2367700</v>
+        <v>2333500</v>
       </c>
       <c r="H48" s="3">
-        <v>2298700</v>
+        <v>2321000</v>
       </c>
       <c r="I48" s="3">
+        <v>2311700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2244400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1068000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1077700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1022500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1045000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>990100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>973400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>938900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,40 +2684,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>63300</v>
+        <v>65200</v>
       </c>
       <c r="E52" s="3">
-        <v>54000</v>
+        <v>69000</v>
       </c>
       <c r="F52" s="3">
-        <v>48400</v>
+        <v>61800</v>
       </c>
       <c r="G52" s="3">
-        <v>33100</v>
+        <v>52700</v>
       </c>
       <c r="H52" s="3">
-        <v>45700</v>
+        <v>47200</v>
       </c>
       <c r="I52" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K52" s="3">
         <v>21000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>19700</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>35</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2810500</v>
+        <v>2627200</v>
       </c>
       <c r="E54" s="3">
-        <v>2848400</v>
+        <v>2532900</v>
       </c>
       <c r="F54" s="3">
-        <v>2848900</v>
+        <v>2744100</v>
       </c>
       <c r="G54" s="3">
-        <v>2795700</v>
+        <v>2781000</v>
       </c>
       <c r="H54" s="3">
-        <v>2768400</v>
+        <v>2781500</v>
       </c>
       <c r="I54" s="3">
+        <v>2729600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2702900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1497700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1478200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1363900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1288500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1222500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1220500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1200600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>98900</v>
+        <v>101900</v>
       </c>
       <c r="E57" s="3">
-        <v>93300</v>
+        <v>98000</v>
       </c>
       <c r="F57" s="3">
-        <v>100800</v>
+        <v>96600</v>
       </c>
       <c r="G57" s="3">
-        <v>114100</v>
+        <v>91100</v>
       </c>
       <c r="H57" s="3">
-        <v>117000</v>
+        <v>98400</v>
       </c>
       <c r="I57" s="3">
+        <v>111400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K57" s="3">
         <v>43800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>45600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>38300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>36700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>43300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>52600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I58" s="3">
         <v>14200</v>
       </c>
-      <c r="E58" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>213600</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K58" s="3">
         <v>172500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>174400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>49000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="E59" s="3">
-        <v>68400</v>
+        <v>71700</v>
       </c>
       <c r="F59" s="3">
-        <v>86200</v>
+        <v>66000</v>
       </c>
       <c r="G59" s="3">
-        <v>101900</v>
+        <v>66800</v>
       </c>
       <c r="H59" s="3">
         <v>84100</v>
       </c>
       <c r="I59" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K59" s="3">
         <v>65600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>66000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>77400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>61400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>38700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>40900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>51300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>180800</v>
+        <v>187900</v>
       </c>
       <c r="E60" s="3">
-        <v>175900</v>
+        <v>182400</v>
       </c>
       <c r="F60" s="3">
-        <v>201300</v>
+        <v>176500</v>
       </c>
       <c r="G60" s="3">
-        <v>230600</v>
+        <v>171800</v>
       </c>
       <c r="H60" s="3">
-        <v>414700</v>
+        <v>196500</v>
       </c>
       <c r="I60" s="3">
+        <v>225100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K60" s="3">
         <v>282000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>285900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>124600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>105500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>85700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>133100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>115100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>301400</v>
+        <v>381700</v>
       </c>
       <c r="E61" s="3">
-        <v>323100</v>
+        <v>312000</v>
       </c>
       <c r="F61" s="3">
-        <v>297400</v>
+        <v>294200</v>
       </c>
       <c r="G61" s="3">
-        <v>243900</v>
+        <v>315500</v>
       </c>
       <c r="H61" s="3">
-        <v>89400</v>
+        <v>290400</v>
       </c>
       <c r="I61" s="3">
+        <v>238100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K61" s="3">
         <v>71100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>71300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>221200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>190700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>185200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>217500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>207200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>337400</v>
+        <v>302300</v>
       </c>
       <c r="E62" s="3">
-        <v>341400</v>
+        <v>298800</v>
       </c>
       <c r="F62" s="3">
-        <v>336800</v>
+        <v>329500</v>
       </c>
       <c r="G62" s="3">
-        <v>344600</v>
+        <v>333400</v>
       </c>
       <c r="H62" s="3">
-        <v>309400</v>
+        <v>328800</v>
       </c>
       <c r="I62" s="3">
+        <v>336400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K62" s="3">
         <v>79300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>79900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>80100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>70500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>69900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>65900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>890900</v>
+        <v>932500</v>
       </c>
       <c r="E66" s="3">
-        <v>916100</v>
+        <v>852500</v>
       </c>
       <c r="F66" s="3">
-        <v>912000</v>
+        <v>869900</v>
       </c>
       <c r="G66" s="3">
-        <v>894300</v>
+        <v>894400</v>
       </c>
       <c r="H66" s="3">
-        <v>887400</v>
+        <v>890400</v>
       </c>
       <c r="I66" s="3">
+        <v>873100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>866400</v>
+      </c>
+      <c r="K66" s="3">
         <v>432400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>437200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>425900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>366600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>340700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>416500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>385600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>440700</v>
+        <v>237800</v>
       </c>
       <c r="E72" s="3">
-        <v>444300</v>
+        <v>224600</v>
       </c>
       <c r="F72" s="3">
-        <v>441100</v>
+        <v>430300</v>
       </c>
       <c r="G72" s="3">
-        <v>405600</v>
+        <v>433800</v>
       </c>
       <c r="H72" s="3">
-        <v>383300</v>
+        <v>430600</v>
       </c>
       <c r="I72" s="3">
+        <v>396000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>374300</v>
+      </c>
+      <c r="K72" s="3">
         <v>370600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>347500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>301700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>279700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>256000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>263400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>273600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1919600</v>
+        <v>1694700</v>
       </c>
       <c r="E76" s="3">
-        <v>1932300</v>
+        <v>1680400</v>
       </c>
       <c r="F76" s="3">
-        <v>1936900</v>
+        <v>1874200</v>
       </c>
       <c r="G76" s="3">
-        <v>1901400</v>
+        <v>1886600</v>
       </c>
       <c r="H76" s="3">
-        <v>1881000</v>
+        <v>1891100</v>
       </c>
       <c r="I76" s="3">
+        <v>1856400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1836500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1065400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1041000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>938000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>921900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>881800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>803900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>815000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-5200</v>
+        <v>14700</v>
       </c>
       <c r="E81" s="3">
-        <v>3200</v>
+        <v>-206200</v>
       </c>
       <c r="F81" s="3">
-        <v>36000</v>
+        <v>-5100</v>
       </c>
       <c r="G81" s="3">
-        <v>21800</v>
+        <v>3100</v>
       </c>
       <c r="H81" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>22400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>36500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>17100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>24300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64800</v>
+        <v>59700</v>
       </c>
       <c r="E83" s="3">
-        <v>59400</v>
+        <v>60100</v>
       </c>
       <c r="F83" s="3">
-        <v>53200</v>
+        <v>63300</v>
       </c>
       <c r="G83" s="3">
-        <v>62000</v>
+        <v>58000</v>
       </c>
       <c r="H83" s="3">
-        <v>52200</v>
+        <v>52000</v>
       </c>
       <c r="I83" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K83" s="3">
         <v>28400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>89400</v>
+        <v>56400</v>
       </c>
       <c r="E89" s="3">
-        <v>64600</v>
+        <v>67000</v>
       </c>
       <c r="F89" s="3">
-        <v>46000</v>
+        <v>87300</v>
       </c>
       <c r="G89" s="3">
-        <v>78900</v>
+        <v>63100</v>
       </c>
       <c r="H89" s="3">
-        <v>54400</v>
+        <v>44900</v>
       </c>
       <c r="I89" s="3">
+        <v>77000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K89" s="3">
         <v>40900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>29200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>40400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>59300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81500</v>
+        <v>-61600</v>
       </c>
       <c r="E91" s="3">
-        <v>-74600</v>
+        <v>-73300</v>
       </c>
       <c r="F91" s="3">
-        <v>-89900</v>
+        <v>-58900</v>
       </c>
       <c r="G91" s="3">
-        <v>-85800</v>
+        <v>-54000</v>
       </c>
       <c r="H91" s="3">
-        <v>-107900</v>
+        <v>-65000</v>
       </c>
       <c r="I91" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81500</v>
+        <v>-80400</v>
       </c>
       <c r="E94" s="3">
-        <v>-80300</v>
+        <v>-98300</v>
       </c>
       <c r="F94" s="3">
-        <v>-90500</v>
+        <v>-79600</v>
       </c>
       <c r="G94" s="3">
-        <v>-70900</v>
+        <v>-78400</v>
       </c>
       <c r="H94" s="3">
-        <v>-16500</v>
+        <v>-88400</v>
       </c>
       <c r="I94" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-70100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-30400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-46900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-58700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32700</v>
+        <v>29700</v>
       </c>
       <c r="E100" s="3">
-        <v>19400</v>
+        <v>15300</v>
       </c>
       <c r="F100" s="3">
-        <v>50800</v>
+        <v>-31900</v>
       </c>
       <c r="G100" s="3">
-        <v>-47700</v>
+        <v>18900</v>
       </c>
       <c r="H100" s="3">
-        <v>-17000</v>
+        <v>49600</v>
       </c>
       <c r="I100" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>29100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>48800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>52900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="F101" s="3">
-        <v>-1700</v>
+        <v>-9800</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
         <v>-1700</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34900</v>
+        <v>5700</v>
       </c>
       <c r="E102" s="3">
-        <v>8000</v>
+        <v>-14100</v>
       </c>
       <c r="F102" s="3">
-        <v>4500</v>
+        <v>-34000</v>
       </c>
       <c r="G102" s="3">
-        <v>-39600</v>
+        <v>7800</v>
       </c>
       <c r="H102" s="3">
-        <v>19300</v>
+        <v>4400</v>
       </c>
       <c r="I102" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-33000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-15100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>237200</v>
+        <v>214000</v>
       </c>
       <c r="E8" s="3">
-        <v>222300</v>
+        <v>237300</v>
       </c>
       <c r="F8" s="3">
-        <v>224900</v>
+        <v>222500</v>
       </c>
       <c r="G8" s="3">
-        <v>226700</v>
+        <v>225000</v>
       </c>
       <c r="H8" s="3">
-        <v>246100</v>
+        <v>226800</v>
       </c>
       <c r="I8" s="3">
-        <v>268500</v>
+        <v>246200</v>
       </c>
       <c r="J8" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K8" s="3">
         <v>219500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>108800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>182600</v>
+        <v>170700</v>
       </c>
       <c r="E9" s="3">
-        <v>182100</v>
+        <v>182700</v>
       </c>
       <c r="F9" s="3">
-        <v>190100</v>
+        <v>182200</v>
       </c>
       <c r="G9" s="3">
-        <v>177200</v>
+        <v>190200</v>
       </c>
       <c r="H9" s="3">
-        <v>160400</v>
+        <v>177300</v>
       </c>
       <c r="I9" s="3">
-        <v>182600</v>
+        <v>160500</v>
       </c>
       <c r="J9" s="3">
+        <v>182700</v>
+      </c>
+      <c r="K9" s="3">
         <v>153100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E10" s="3">
         <v>54600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85700</v>
       </c>
-      <c r="I10" s="3">
-        <v>85900</v>
-      </c>
       <c r="J10" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K10" s="3">
         <v>66400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,31 +921,32 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -941,25 +955,28 @@
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
       </c>
       <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>252500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>252600</v>
+      </c>
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
-        <v>5400</v>
-      </c>
       <c r="H14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>204900</v>
+        <v>203500</v>
       </c>
       <c r="E17" s="3">
-        <v>456100</v>
+        <v>205000</v>
       </c>
       <c r="F17" s="3">
-        <v>217200</v>
+        <v>456300</v>
       </c>
       <c r="G17" s="3">
-        <v>208900</v>
+        <v>217300</v>
       </c>
       <c r="H17" s="3">
-        <v>191200</v>
+        <v>209000</v>
       </c>
       <c r="I17" s="3">
-        <v>216900</v>
+        <v>191300</v>
       </c>
       <c r="J17" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K17" s="3">
         <v>204300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>122000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>71700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>32300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-233700</v>
-      </c>
       <c r="F18" s="3">
+        <v>-233800</v>
+      </c>
+      <c r="G18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17800</v>
       </c>
-      <c r="H18" s="3">
-        <v>54900</v>
-      </c>
       <c r="I18" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J18" s="3">
         <v>51600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4500</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>87500</v>
+        <v>61300</v>
       </c>
       <c r="E21" s="3">
-        <v>-175600</v>
+        <v>87400</v>
       </c>
       <c r="F21" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="G21" s="3">
         <v>65600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>98400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>69700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>800</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
       </c>
       <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-237300</v>
-      </c>
       <c r="F23" s="3">
+        <v>-237400</v>
+      </c>
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45600</v>
       </c>
-      <c r="I23" s="3">
-        <v>40700</v>
-      </c>
       <c r="J23" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K23" s="3">
         <v>12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>10700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>16000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-216600</v>
-      </c>
       <c r="F26" s="3">
+        <v>-216700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-206200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-206200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-206200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,90 +2226,94 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E41" s="3">
         <v>114400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>108700</v>
       </c>
-      <c r="F41" s="3">
-        <v>122700</v>
-      </c>
       <c r="G41" s="3">
-        <v>156800</v>
+        <v>122800</v>
       </c>
       <c r="H41" s="3">
-        <v>149000</v>
+        <v>156900</v>
       </c>
       <c r="I41" s="3">
-        <v>144600</v>
+        <v>149100</v>
       </c>
       <c r="J41" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K41" s="3">
         <v>183300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>201400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3">
-        <v>100</v>
+      <c r="E42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>35</v>
@@ -2234,314 +2324,335 @@
       <c r="P42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>107100</v>
+        <v>91600</v>
       </c>
       <c r="E43" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F43" s="3">
         <v>93000</v>
       </c>
-      <c r="F43" s="3">
-        <v>88700</v>
-      </c>
       <c r="G43" s="3">
+        <v>88800</v>
+      </c>
+      <c r="H43" s="3">
         <v>100400</v>
       </c>
-      <c r="H43" s="3">
-        <v>121400</v>
-      </c>
       <c r="I43" s="3">
+        <v>121500</v>
+      </c>
+      <c r="J43" s="3">
         <v>105600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>121300</v>
+        <v>142100</v>
       </c>
       <c r="E44" s="3">
-        <v>124200</v>
+        <v>121400</v>
       </c>
       <c r="F44" s="3">
+        <v>124300</v>
+      </c>
+      <c r="G44" s="3">
         <v>111700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116400</v>
       </c>
-      <c r="H44" s="3">
-        <v>123200</v>
-      </c>
       <c r="I44" s="3">
+        <v>123300</v>
+      </c>
+      <c r="J44" s="3">
         <v>115900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>96300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12900</v>
       </c>
       <c r="I45" s="3">
         <v>12900</v>
       </c>
       <c r="J45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>357500</v>
+        <v>371500</v>
       </c>
       <c r="E46" s="3">
-        <v>341200</v>
+        <v>357600</v>
       </c>
       <c r="F46" s="3">
-        <v>340000</v>
+        <v>341300</v>
       </c>
       <c r="G46" s="3">
-        <v>388500</v>
+        <v>340200</v>
       </c>
       <c r="H46" s="3">
-        <v>407000</v>
+        <v>388700</v>
       </c>
       <c r="I46" s="3">
-        <v>379500</v>
+        <v>407200</v>
       </c>
       <c r="J46" s="3">
+        <v>379700</v>
+      </c>
+      <c r="K46" s="3">
         <v>389900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>353400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>388000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>320600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>182500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>168800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>181000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>195100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E47" s="3">
         <v>6800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6300</v>
       </c>
       <c r="H47" s="3">
         <v>6300</v>
       </c>
       <c r="I47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J47" s="3">
         <v>6100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>61100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2197700</v>
+        <v>2233200</v>
       </c>
       <c r="E48" s="3">
-        <v>2116300</v>
+        <v>2198900</v>
       </c>
       <c r="F48" s="3">
-        <v>2336100</v>
+        <v>2117400</v>
       </c>
       <c r="G48" s="3">
-        <v>2333500</v>
+        <v>2337300</v>
       </c>
       <c r="H48" s="3">
-        <v>2321000</v>
+        <v>2334700</v>
       </c>
       <c r="I48" s="3">
-        <v>2311700</v>
+        <v>2322200</v>
       </c>
       <c r="J48" s="3">
+        <v>2312900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2244400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1068000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1077700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1022500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1045000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>990100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>973400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>938900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,43 +2807,46 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E52" s="3">
         <v>65200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>69000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47200</v>
       </c>
-      <c r="I52" s="3">
-        <v>32300</v>
-      </c>
       <c r="J52" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K52" s="3">
         <v>44600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19700</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>35</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2627200</v>
+        <v>2689900</v>
       </c>
       <c r="E54" s="3">
-        <v>2532900</v>
+        <v>2628500</v>
       </c>
       <c r="F54" s="3">
-        <v>2744100</v>
+        <v>2534200</v>
       </c>
       <c r="G54" s="3">
-        <v>2781000</v>
+        <v>2745500</v>
       </c>
       <c r="H54" s="3">
-        <v>2781500</v>
+        <v>2782400</v>
       </c>
       <c r="I54" s="3">
-        <v>2729600</v>
+        <v>2783000</v>
       </c>
       <c r="J54" s="3">
+        <v>2731000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2702900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1497700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1478200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1363900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1288500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1222500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1220500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,69 +3010,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101900</v>
+        <v>100300</v>
       </c>
       <c r="E57" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F57" s="3">
         <v>98000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96600</v>
       </c>
-      <c r="G57" s="3">
-        <v>91100</v>
-      </c>
       <c r="H57" s="3">
-        <v>98400</v>
+        <v>91200</v>
       </c>
       <c r="I57" s="3">
-        <v>111400</v>
+        <v>98500</v>
       </c>
       <c r="J57" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K57" s="3">
         <v>114200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E58" s="3">
         <v>17900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>13900</v>
       </c>
       <c r="G58" s="3">
         <v>13900</v>
@@ -2951,237 +3085,252 @@
         <v>13900</v>
       </c>
       <c r="I58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>208500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>172500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>174400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E59" s="3">
         <v>68100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>66800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>82100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="M59" s="3">
         <v>66000</v>
       </c>
-      <c r="G59" s="3">
-        <v>66800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>84100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>99500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>82100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>65600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>66000</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>187900</v>
+        <v>187300</v>
       </c>
       <c r="E60" s="3">
-        <v>182400</v>
+        <v>188000</v>
       </c>
       <c r="F60" s="3">
-        <v>176500</v>
+        <v>182500</v>
       </c>
       <c r="G60" s="3">
+        <v>176600</v>
+      </c>
+      <c r="H60" s="3">
         <v>171800</v>
       </c>
-      <c r="H60" s="3">
-        <v>196500</v>
-      </c>
       <c r="I60" s="3">
-        <v>225100</v>
+        <v>196600</v>
       </c>
       <c r="J60" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K60" s="3">
         <v>404900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>282000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>285900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>133100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>115100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>381700</v>
+        <v>436600</v>
       </c>
       <c r="E61" s="3">
-        <v>312000</v>
+        <v>381900</v>
       </c>
       <c r="F61" s="3">
-        <v>294200</v>
+        <v>312200</v>
       </c>
       <c r="G61" s="3">
-        <v>315500</v>
+        <v>294400</v>
       </c>
       <c r="H61" s="3">
-        <v>290400</v>
+        <v>315600</v>
       </c>
       <c r="I61" s="3">
-        <v>238100</v>
+        <v>290600</v>
       </c>
       <c r="J61" s="3">
+        <v>238200</v>
+      </c>
+      <c r="K61" s="3">
         <v>87300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>71100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>71300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>221200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>190700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>185200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>217500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>207200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>302300</v>
+        <v>302700</v>
       </c>
       <c r="E62" s="3">
-        <v>298800</v>
+        <v>302500</v>
       </c>
       <c r="F62" s="3">
-        <v>329500</v>
+        <v>299000</v>
       </c>
       <c r="G62" s="3">
-        <v>333400</v>
+        <v>329600</v>
       </c>
       <c r="H62" s="3">
-        <v>328800</v>
+        <v>333500</v>
       </c>
       <c r="I62" s="3">
-        <v>336400</v>
+        <v>329000</v>
       </c>
       <c r="J62" s="3">
+        <v>336600</v>
+      </c>
+      <c r="K62" s="3">
         <v>302100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>79300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>65900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>932500</v>
+        <v>987700</v>
       </c>
       <c r="E66" s="3">
-        <v>852500</v>
+        <v>933000</v>
       </c>
       <c r="F66" s="3">
-        <v>869900</v>
+        <v>852900</v>
       </c>
       <c r="G66" s="3">
-        <v>894400</v>
+        <v>870300</v>
       </c>
       <c r="H66" s="3">
-        <v>890400</v>
+        <v>894900</v>
       </c>
       <c r="I66" s="3">
-        <v>873100</v>
+        <v>890900</v>
       </c>
       <c r="J66" s="3">
+        <v>873600</v>
+      </c>
+      <c r="K66" s="3">
         <v>866400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>432400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>437200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>425900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>366600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>340700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>416500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>385600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>237800</v>
+        <v>240300</v>
       </c>
       <c r="E72" s="3">
-        <v>224600</v>
+        <v>237900</v>
       </c>
       <c r="F72" s="3">
-        <v>430300</v>
+        <v>224700</v>
       </c>
       <c r="G72" s="3">
-        <v>433800</v>
+        <v>430500</v>
       </c>
       <c r="H72" s="3">
-        <v>430600</v>
+        <v>434000</v>
       </c>
       <c r="I72" s="3">
-        <v>396000</v>
+        <v>430800</v>
       </c>
       <c r="J72" s="3">
+        <v>396200</v>
+      </c>
+      <c r="K72" s="3">
         <v>374300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>370600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>347500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>301700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>279700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>256000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>263400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>273600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1694700</v>
+        <v>1702200</v>
       </c>
       <c r="E76" s="3">
-        <v>1680400</v>
+        <v>1695500</v>
       </c>
       <c r="F76" s="3">
-        <v>1874200</v>
+        <v>1681300</v>
       </c>
       <c r="G76" s="3">
-        <v>1886600</v>
+        <v>1875100</v>
       </c>
       <c r="H76" s="3">
-        <v>1891100</v>
+        <v>1887600</v>
       </c>
       <c r="I76" s="3">
-        <v>1856400</v>
+        <v>1892100</v>
       </c>
       <c r="J76" s="3">
+        <v>1857400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1836500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1065400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1041000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>938000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>921900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>881800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>803900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>815000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-206200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E83" s="3">
         <v>59700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>51000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E89" s="3">
         <v>56400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>63100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44900</v>
       </c>
-      <c r="I89" s="3">
-        <v>77000</v>
-      </c>
       <c r="J89" s="3">
+        <v>77100</v>
+      </c>
+      <c r="K89" s="3">
         <v>53200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
       </c>
       <c r="N91" s="3">
         <v>-500</v>
       </c>
       <c r="O91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80400</v>
+        <v>-98100</v>
       </c>
       <c r="E94" s="3">
-        <v>-98300</v>
+        <v>-80500</v>
       </c>
       <c r="F94" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-79600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-78400</v>
-      </c>
       <c r="H94" s="3">
-        <v>-88400</v>
+        <v>-78500</v>
       </c>
       <c r="I94" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-69200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E100" s="3">
         <v>29700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18900</v>
       </c>
-      <c r="H100" s="3">
-        <v>49600</v>
-      </c>
       <c r="I100" s="3">
+        <v>49700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-46600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>52900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-34000</v>
-      </c>
       <c r="G102" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-38700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>FVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>214000</v>
+        <v>334400</v>
       </c>
       <c r="E8" s="3">
-        <v>237300</v>
+        <v>217900</v>
       </c>
       <c r="F8" s="3">
-        <v>222500</v>
+        <v>241700</v>
       </c>
       <c r="G8" s="3">
-        <v>225000</v>
+        <v>226500</v>
       </c>
       <c r="H8" s="3">
-        <v>226800</v>
+        <v>229200</v>
       </c>
       <c r="I8" s="3">
-        <v>246200</v>
+        <v>230900</v>
       </c>
       <c r="J8" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K8" s="3">
         <v>268700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>108800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>60500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>88500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170700</v>
+        <v>243700</v>
       </c>
       <c r="E9" s="3">
+        <v>173900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>186000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>185500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>193700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>180600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K9" s="3">
         <v>182700</v>
       </c>
-      <c r="F9" s="3">
-        <v>182200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>190200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>177300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>160500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>182700</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>92100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>73100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>56700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43200</v>
+        <v>90700</v>
       </c>
       <c r="E10" s="3">
-        <v>54600</v>
+        <v>44000</v>
       </c>
       <c r="F10" s="3">
-        <v>40300</v>
+        <v>55600</v>
       </c>
       <c r="G10" s="3">
-        <v>34800</v>
+        <v>41000</v>
       </c>
       <c r="H10" s="3">
-        <v>49400</v>
+        <v>35500</v>
       </c>
       <c r="I10" s="3">
-        <v>85700</v>
+        <v>50400</v>
       </c>
       <c r="J10" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K10" s="3">
         <v>86000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,34 +935,35 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>700</v>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
       </c>
       <c r="J12" s="3">
+        <v>700</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
@@ -958,25 +972,28 @@
         <v>300</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>252600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>257200</v>
       </c>
       <c r="H14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>17100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>17100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>700</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>203500</v>
+        <v>271900</v>
       </c>
       <c r="E17" s="3">
-        <v>205000</v>
+        <v>207300</v>
       </c>
       <c r="F17" s="3">
-        <v>456300</v>
+        <v>208800</v>
       </c>
       <c r="G17" s="3">
-        <v>217300</v>
+        <v>464700</v>
       </c>
       <c r="H17" s="3">
-        <v>209000</v>
+        <v>221300</v>
       </c>
       <c r="I17" s="3">
-        <v>191300</v>
+        <v>212800</v>
       </c>
       <c r="J17" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K17" s="3">
         <v>217000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>204300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>122000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>76900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10400</v>
+        <v>62500</v>
       </c>
       <c r="E18" s="3">
-        <v>32300</v>
+        <v>10600</v>
       </c>
       <c r="F18" s="3">
-        <v>-233800</v>
+        <v>32900</v>
       </c>
       <c r="G18" s="3">
-        <v>7700</v>
+        <v>-238100</v>
       </c>
       <c r="H18" s="3">
-        <v>17800</v>
+        <v>7900</v>
       </c>
       <c r="I18" s="3">
-        <v>55000</v>
+        <v>18100</v>
       </c>
       <c r="J18" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K18" s="3">
         <v>51600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3000</v>
+        <v>-9400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700</v>
+        <v>-3100</v>
       </c>
       <c r="F20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H20" s="3">
-        <v>3600</v>
+        <v>-5500</v>
       </c>
       <c r="I20" s="3">
-        <v>-8500</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>61300</v>
+        <v>141000</v>
       </c>
       <c r="E21" s="3">
-        <v>87400</v>
+        <v>62500</v>
       </c>
       <c r="F21" s="3">
-        <v>-175700</v>
+        <v>89000</v>
       </c>
       <c r="G21" s="3">
-        <v>65600</v>
+        <v>-179000</v>
       </c>
       <c r="H21" s="3">
-        <v>79400</v>
+        <v>66800</v>
       </c>
       <c r="I21" s="3">
-        <v>98400</v>
+        <v>80900</v>
       </c>
       <c r="J21" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K21" s="3">
         <v>105900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>69700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>51200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
       </c>
       <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6100</v>
+        <v>51500</v>
       </c>
       <c r="E23" s="3">
-        <v>26700</v>
+        <v>6200</v>
       </c>
       <c r="F23" s="3">
-        <v>-237400</v>
+        <v>27200</v>
       </c>
       <c r="G23" s="3">
+        <v>-241800</v>
+      </c>
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
-        <v>20600</v>
-      </c>
       <c r="I23" s="3">
-        <v>45600</v>
+        <v>21000</v>
       </c>
       <c r="J23" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K23" s="3">
         <v>40800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
-        <v>10700</v>
-      </c>
       <c r="F24" s="3">
-        <v>-20700</v>
+        <v>10900</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>-21100</v>
       </c>
       <c r="H24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="N24" s="3">
         <v>18400</v>
       </c>
-      <c r="I24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>16700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4700</v>
+        <v>42500</v>
       </c>
       <c r="E26" s="3">
-        <v>16000</v>
+        <v>4800</v>
       </c>
       <c r="F26" s="3">
-        <v>-216700</v>
+        <v>16300</v>
       </c>
       <c r="G26" s="3">
-        <v>-5600</v>
+        <v>-220700</v>
       </c>
       <c r="H26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
-        <v>36400</v>
-      </c>
       <c r="J26" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K26" s="3">
         <v>22400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4200</v>
+        <v>37800</v>
       </c>
       <c r="E27" s="3">
-        <v>14700</v>
+        <v>4300</v>
       </c>
       <c r="F27" s="3">
-        <v>-206300</v>
+        <v>15000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5100</v>
+        <v>-210100</v>
       </c>
       <c r="H27" s="3">
-        <v>3100</v>
+        <v>-5200</v>
       </c>
       <c r="I27" s="3">
-        <v>35200</v>
+        <v>3200</v>
       </c>
       <c r="J27" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K27" s="3">
         <v>21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>3000</v>
+        <v>9400</v>
       </c>
       <c r="E32" s="3">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="F32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>5400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-3600</v>
+        <v>5500</v>
       </c>
       <c r="I32" s="3">
-        <v>8500</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4200</v>
+        <v>37800</v>
       </c>
       <c r="E33" s="3">
-        <v>14700</v>
+        <v>4300</v>
       </c>
       <c r="F33" s="3">
-        <v>-206300</v>
+        <v>15000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5100</v>
+        <v>-210100</v>
       </c>
       <c r="H33" s="3">
-        <v>3100</v>
+        <v>-5200</v>
       </c>
       <c r="I33" s="3">
-        <v>35200</v>
+        <v>3200</v>
       </c>
       <c r="J33" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K33" s="3">
         <v>21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4200</v>
+        <v>37800</v>
       </c>
       <c r="E35" s="3">
-        <v>14700</v>
+        <v>4300</v>
       </c>
       <c r="F35" s="3">
-        <v>-206300</v>
+        <v>15000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5100</v>
+        <v>-210100</v>
       </c>
       <c r="H35" s="3">
-        <v>3100</v>
+        <v>-5200</v>
       </c>
       <c r="I35" s="3">
-        <v>35200</v>
+        <v>3200</v>
       </c>
       <c r="J35" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K35" s="3">
         <v>21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>126200</v>
+        <v>162000</v>
       </c>
       <c r="E41" s="3">
-        <v>114400</v>
+        <v>128500</v>
       </c>
       <c r="F41" s="3">
-        <v>108700</v>
+        <v>116500</v>
       </c>
       <c r="G41" s="3">
-        <v>122800</v>
+        <v>110700</v>
       </c>
       <c r="H41" s="3">
-        <v>156900</v>
+        <v>125100</v>
       </c>
       <c r="I41" s="3">
-        <v>149100</v>
+        <v>159700</v>
       </c>
       <c r="J41" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K41" s="3">
         <v>144700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>201400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>111100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>107000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2291,32 +2381,32 @@
       <c r="E42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="3">
-        <v>100</v>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1200</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>35</v>
@@ -2327,332 +2417,353 @@
       <c r="Q42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91600</v>
+        <v>94800</v>
       </c>
       <c r="E43" s="3">
-        <v>107200</v>
+        <v>93300</v>
       </c>
       <c r="F43" s="3">
-        <v>93000</v>
+        <v>109100</v>
       </c>
       <c r="G43" s="3">
-        <v>88800</v>
+        <v>94700</v>
       </c>
       <c r="H43" s="3">
-        <v>100400</v>
+        <v>90400</v>
       </c>
       <c r="I43" s="3">
-        <v>121500</v>
+        <v>102300</v>
       </c>
       <c r="J43" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K43" s="3">
         <v>105600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>93100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>98900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>61200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>142100</v>
+        <v>182600</v>
       </c>
       <c r="E44" s="3">
-        <v>121400</v>
+        <v>144500</v>
       </c>
       <c r="F44" s="3">
-        <v>124300</v>
+        <v>123600</v>
       </c>
       <c r="G44" s="3">
-        <v>111700</v>
+        <v>126600</v>
       </c>
       <c r="H44" s="3">
-        <v>116400</v>
+        <v>113800</v>
       </c>
       <c r="I44" s="3">
-        <v>123300</v>
+        <v>118600</v>
       </c>
       <c r="J44" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K44" s="3">
         <v>115900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>96300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>69700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>45600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>19000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11600</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>14600</v>
+        <v>11900</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="G45" s="3">
-        <v>16800</v>
+        <v>15400</v>
       </c>
       <c r="H45" s="3">
-        <v>14600</v>
+        <v>17100</v>
       </c>
       <c r="I45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K45" s="3">
         <v>12900</v>
       </c>
-      <c r="J45" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>371500</v>
+        <v>454300</v>
       </c>
       <c r="E46" s="3">
-        <v>357600</v>
+        <v>378300</v>
       </c>
       <c r="F46" s="3">
-        <v>341300</v>
+        <v>364200</v>
       </c>
       <c r="G46" s="3">
-        <v>340200</v>
+        <v>347600</v>
       </c>
       <c r="H46" s="3">
-        <v>388700</v>
+        <v>346400</v>
       </c>
       <c r="I46" s="3">
-        <v>407200</v>
+        <v>395800</v>
       </c>
       <c r="J46" s="3">
+        <v>414700</v>
+      </c>
+      <c r="K46" s="3">
         <v>379700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>389900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>353400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>388000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>320600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>182500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>168800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>181000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>195100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>162300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19600</v>
+        <v>11600</v>
       </c>
       <c r="E47" s="3">
-        <v>6800</v>
+        <v>20000</v>
       </c>
       <c r="F47" s="3">
-        <v>6500</v>
+        <v>6900</v>
       </c>
       <c r="G47" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="H47" s="3">
         <v>6300</v>
       </c>
       <c r="I47" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K47" s="3">
         <v>6100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>61100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2233200</v>
+        <v>2284500</v>
       </c>
       <c r="E48" s="3">
-        <v>2198900</v>
+        <v>2274200</v>
       </c>
       <c r="F48" s="3">
-        <v>2117400</v>
+        <v>2239200</v>
       </c>
       <c r="G48" s="3">
-        <v>2337300</v>
+        <v>2156300</v>
       </c>
       <c r="H48" s="3">
-        <v>2334700</v>
+        <v>2380300</v>
       </c>
       <c r="I48" s="3">
-        <v>2322200</v>
+        <v>2377600</v>
       </c>
       <c r="J48" s="3">
+        <v>2364800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2312900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2244400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1068000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1077700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1022500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1045000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>990100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>973400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>938900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>892600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,46 +2927,49 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65700</v>
+        <v>64700</v>
       </c>
       <c r="E52" s="3">
-        <v>65200</v>
+        <v>66900</v>
       </c>
       <c r="F52" s="3">
-        <v>69000</v>
+        <v>66400</v>
       </c>
       <c r="G52" s="3">
-        <v>61800</v>
+        <v>70300</v>
       </c>
       <c r="H52" s="3">
-        <v>52700</v>
+        <v>62900</v>
       </c>
       <c r="I52" s="3">
-        <v>47200</v>
+        <v>53700</v>
       </c>
       <c r="J52" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K52" s="3">
         <v>32400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19700</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>35</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2689900</v>
+        <v>2815100</v>
       </c>
       <c r="E54" s="3">
-        <v>2628500</v>
+        <v>2739300</v>
       </c>
       <c r="F54" s="3">
-        <v>2534200</v>
+        <v>2676800</v>
       </c>
       <c r="G54" s="3">
-        <v>2745500</v>
+        <v>2580700</v>
       </c>
       <c r="H54" s="3">
-        <v>2782400</v>
+        <v>2795900</v>
       </c>
       <c r="I54" s="3">
-        <v>2783000</v>
+        <v>2833500</v>
       </c>
       <c r="J54" s="3">
+        <v>2834100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2731000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2702900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1497700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1478200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1363900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1288500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1222500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1220500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1117800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>102200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>103800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>99800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>98400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>92800</v>
+      </c>
+      <c r="J57" s="3">
         <v>100300</v>
       </c>
-      <c r="E57" s="3">
-        <v>102000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>98000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>96600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>91200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>98500</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>111500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>114200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21100</v>
+        <v>17600</v>
       </c>
       <c r="E58" s="3">
-        <v>17900</v>
+        <v>21500</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>18200</v>
       </c>
       <c r="G58" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="H58" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I58" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="J58" s="3">
         <v>14200</v>
       </c>
       <c r="K58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="L58" s="3">
         <v>208500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>172500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>174400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65900</v>
+        <v>89000</v>
       </c>
       <c r="E59" s="3">
-        <v>68100</v>
+        <v>67100</v>
       </c>
       <c r="F59" s="3">
-        <v>71700</v>
+        <v>69300</v>
       </c>
       <c r="G59" s="3">
-        <v>66100</v>
+        <v>73000</v>
       </c>
       <c r="H59" s="3">
-        <v>66800</v>
+        <v>67300</v>
       </c>
       <c r="I59" s="3">
-        <v>84200</v>
+        <v>68000</v>
       </c>
       <c r="J59" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K59" s="3">
         <v>99600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>187300</v>
+        <v>214400</v>
       </c>
       <c r="E60" s="3">
-        <v>188000</v>
+        <v>190700</v>
       </c>
       <c r="F60" s="3">
-        <v>182500</v>
+        <v>191400</v>
       </c>
       <c r="G60" s="3">
-        <v>176600</v>
+        <v>185800</v>
       </c>
       <c r="H60" s="3">
-        <v>171800</v>
+        <v>179900</v>
       </c>
       <c r="I60" s="3">
-        <v>196600</v>
+        <v>175000</v>
       </c>
       <c r="J60" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K60" s="3">
         <v>225300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>404900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>282000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>285900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>115100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>436600</v>
+        <v>394700</v>
       </c>
       <c r="E61" s="3">
-        <v>381900</v>
+        <v>444600</v>
       </c>
       <c r="F61" s="3">
-        <v>312200</v>
+        <v>388900</v>
       </c>
       <c r="G61" s="3">
-        <v>294400</v>
+        <v>317900</v>
       </c>
       <c r="H61" s="3">
-        <v>315600</v>
+        <v>299800</v>
       </c>
       <c r="I61" s="3">
-        <v>290600</v>
+        <v>321400</v>
       </c>
       <c r="J61" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K61" s="3">
         <v>238200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>87300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>71100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>71300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>221200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>190700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>185200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>217500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>207200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>302700</v>
+        <v>306600</v>
       </c>
       <c r="E62" s="3">
-        <v>302500</v>
+        <v>308300</v>
       </c>
       <c r="F62" s="3">
-        <v>299000</v>
+        <v>308000</v>
       </c>
       <c r="G62" s="3">
-        <v>329600</v>
+        <v>304500</v>
       </c>
       <c r="H62" s="3">
-        <v>333500</v>
+        <v>335700</v>
       </c>
       <c r="I62" s="3">
-        <v>329000</v>
+        <v>339600</v>
       </c>
       <c r="J62" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K62" s="3">
         <v>336600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>302100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>79900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>69900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>987700</v>
+        <v>980700</v>
       </c>
       <c r="E66" s="3">
-        <v>933000</v>
+        <v>1005900</v>
       </c>
       <c r="F66" s="3">
-        <v>852900</v>
+        <v>950100</v>
       </c>
       <c r="G66" s="3">
-        <v>870300</v>
+        <v>868600</v>
       </c>
       <c r="H66" s="3">
-        <v>894900</v>
+        <v>886300</v>
       </c>
       <c r="I66" s="3">
-        <v>890900</v>
+        <v>911300</v>
       </c>
       <c r="J66" s="3">
+        <v>907200</v>
+      </c>
+      <c r="K66" s="3">
         <v>873600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>866400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>432400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>437200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>425900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>366600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>340700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>416500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>385600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>240300</v>
+        <v>283500</v>
       </c>
       <c r="E72" s="3">
-        <v>237900</v>
+        <v>244700</v>
       </c>
       <c r="F72" s="3">
-        <v>224700</v>
+        <v>242300</v>
       </c>
       <c r="G72" s="3">
-        <v>430500</v>
+        <v>228800</v>
       </c>
       <c r="H72" s="3">
-        <v>434000</v>
+        <v>438400</v>
       </c>
       <c r="I72" s="3">
-        <v>430800</v>
+        <v>442000</v>
       </c>
       <c r="J72" s="3">
+        <v>438800</v>
+      </c>
+      <c r="K72" s="3">
         <v>396200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>374300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>370600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>347500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>301700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>279700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>256000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>263400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>273600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1702200</v>
+        <v>1834400</v>
       </c>
       <c r="E76" s="3">
-        <v>1695500</v>
+        <v>1733400</v>
       </c>
       <c r="F76" s="3">
-        <v>1681300</v>
+        <v>1726700</v>
       </c>
       <c r="G76" s="3">
-        <v>1875100</v>
+        <v>1712200</v>
       </c>
       <c r="H76" s="3">
-        <v>1887600</v>
+        <v>1909600</v>
       </c>
       <c r="I76" s="3">
-        <v>1892100</v>
+        <v>1922200</v>
       </c>
       <c r="J76" s="3">
+        <v>1926800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1857400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1836500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1065400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1041000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>938000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>921900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>881800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>803900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>815000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>782700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4200</v>
+        <v>37800</v>
       </c>
       <c r="E81" s="3">
-        <v>14700</v>
+        <v>4300</v>
       </c>
       <c r="F81" s="3">
-        <v>-206300</v>
+        <v>15000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5100</v>
+        <v>-210100</v>
       </c>
       <c r="H81" s="3">
-        <v>3100</v>
+        <v>-5200</v>
       </c>
       <c r="I81" s="3">
-        <v>35200</v>
+        <v>3200</v>
       </c>
       <c r="J81" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K81" s="3">
         <v>21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53900</v>
+        <v>87900</v>
       </c>
       <c r="E83" s="3">
-        <v>59700</v>
+        <v>54900</v>
       </c>
       <c r="F83" s="3">
-        <v>60100</v>
+        <v>60800</v>
       </c>
       <c r="G83" s="3">
-        <v>63300</v>
+        <v>61200</v>
       </c>
       <c r="H83" s="3">
-        <v>58000</v>
+        <v>64500</v>
       </c>
       <c r="I83" s="3">
-        <v>52000</v>
+        <v>59100</v>
       </c>
       <c r="J83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K83" s="3">
         <v>60500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58900</v>
+        <v>146400</v>
       </c>
       <c r="E89" s="3">
-        <v>56400</v>
+        <v>60000</v>
       </c>
       <c r="F89" s="3">
-        <v>67000</v>
+        <v>57400</v>
       </c>
       <c r="G89" s="3">
-        <v>87300</v>
+        <v>68300</v>
       </c>
       <c r="H89" s="3">
-        <v>63100</v>
+        <v>88900</v>
       </c>
       <c r="I89" s="3">
-        <v>44900</v>
+        <v>64300</v>
       </c>
       <c r="J89" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K89" s="3">
         <v>77100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
       </c>
       <c r="O91" s="3">
         <v>-500</v>
       </c>
       <c r="P91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-98100</v>
+        <v>-46300</v>
       </c>
       <c r="E94" s="3">
-        <v>-80500</v>
+        <v>-99900</v>
       </c>
       <c r="F94" s="3">
-        <v>-98400</v>
+        <v>-82000</v>
       </c>
       <c r="G94" s="3">
-        <v>-79600</v>
+        <v>-100200</v>
       </c>
       <c r="H94" s="3">
-        <v>-78500</v>
+        <v>-81100</v>
       </c>
       <c r="I94" s="3">
-        <v>-88500</v>
+        <v>-79900</v>
       </c>
       <c r="J94" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-69200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-80100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>50900</v>
+        <v>-64800</v>
       </c>
       <c r="E100" s="3">
-        <v>29700</v>
+        <v>51800</v>
       </c>
       <c r="F100" s="3">
-        <v>15300</v>
+        <v>30300</v>
       </c>
       <c r="G100" s="3">
-        <v>-31900</v>
+        <v>15600</v>
       </c>
       <c r="H100" s="3">
-        <v>18900</v>
+        <v>-32500</v>
       </c>
       <c r="I100" s="3">
-        <v>49700</v>
+        <v>19300</v>
       </c>
       <c r="J100" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-46600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>52900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H101" s="3">
-        <v>4200</v>
+        <v>-10000</v>
       </c>
       <c r="I101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11700</v>
+        <v>33500</v>
       </c>
       <c r="E102" s="3">
-        <v>5700</v>
+        <v>12000</v>
       </c>
       <c r="F102" s="3">
-        <v>-14100</v>
+        <v>5800</v>
       </c>
       <c r="G102" s="3">
-        <v>-34100</v>
+        <v>-14300</v>
       </c>
       <c r="H102" s="3">
-        <v>7800</v>
+        <v>-34700</v>
       </c>
       <c r="I102" s="3">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="J102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-38700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6500</v>
       </c>
     </row>
